--- a/bbc_data.xlsx
+++ b/bbc_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,17 +436,17 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>Description</t>
         </is>
       </c>
     </row>
@@ -470,17 +470,782 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>https://www.bbc.com/news/world-middle-east-63660566</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Israel PM-elect Netanyahu's deal plans to bolster settlements</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A deal between Israel's prime minister-elect and his far-right partner reveals the likely next government's highly controversial plans for settlements. It includes moves to legalise dozens of outposts in the occupied West Bank. If the plan becomes policy, it will set Israel on collision course with the Palestinians and its foreign allies. Jewish settlements are widely seen by the international community as illegal, but Israel disagrees. Outposts though are illegal even under Israeli law. Prime Minister-elect Benjamin Netanyahu's right-wing Likud party sent out a statement on Wednesday on what they agreed would go into the coalition agreement, which has yet to be signed. Netanyahu election win propels far right to powerBenjamin Netanyahu, Israel's comeback leader It says they also decided to create Jewish religious seminaries in two evacuated outposts - Evyatar and Homesh.   That would inflame tensions with Palestinians in nearby villages, which have seen regular protests against settlers trying to take over the land, often leading to deadly clashes with Israeli soldiers. "We don't care what was agreed, the people of our town will resist the settlers' presence," Dr Hutifa Badir from Beita, a village near Nablus and by the Evyatar outpost, told the BBC. "We arm ourselves with the blood of martyrs and the wounded. We're committed to our land, and we will not give up on it whatever the cost." The deal between Likud and the Otzma Yehudit (Jewish Power) party of extremist Itamar Ben-Gvir would also see new infrastructure. A total of $500m (€484m; £425m) would be budgeted for settler bypass roads and the expansion of Highway 60, the main traffic route used by West Bank settlements. These would connect them more easily with towns and cities in Israel. In addition, a proposed law would set minimum sentences for what is termed "agricultural crime".  Palestinian activists say this would allow greater impunity when Israeli settlers attack or harass Palestinian farmers on their land. The Palestinian foreign ministry called on the international community and Washington in particular, to take the needed steps to ensure the agreement was not implemented. It stated that it would lead to the "entrenchment and expansion of settlements".   The ministry added the deal was another blow for the hopes of any future return to peace talks with Israel, and the two-state solution - the internationally approved formula for peace to end the Israel-Palestinian conflict. The Religious Zionism alliance - which brings the Religious Zionism party and Otzma Yehudit together - saw a surge in support in Israel's election at the start of this month and finished as the third biggest party in parliament. Much of its focus is on the West Bank, which Israel has occupied since the 1967 Middle East War. The alliance's two hard-line leaders - both settlers - see it as part of a "Greater Israel". They consider the land as a Biblical birthright and vital to Israeli security. Palestinians claim the West Bank and Gaza Strip for their hoped-for future state, with a capital in East Jerusalem. Although Mr Ben-Gvir has made progress in coalition talks with the prospective prime minister, it is not clear whether he will get his wish of becoming minister of internal security, in charge of the police.   That would be a turnaround for a figure with past convictions for racism and belonging to a banned Jewish militant group. There are also still key issues in contention between the prospective prime minister and Bezalel Smotrich, who heads the Religious Zionism party.  Mr Smotrich is understood to be demanding to be made defence minister. The job directly influences policies on the West Bank and Gaza. Israeli media report there have been warnings from the US regarding the appointment. Washington works closely with the Israeli defence ministry and shares highly sensitive security information.   In response, the Religious Zionism party called on the Biden administration to "respect Israeli democracy and not get involved in the formation of an elected government".</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-africa-63648681</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ukraine war: Lemekhani Nyirenda's Zambian family demands answers from Russia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>The death of a 23-year-old Zambian student who had been recruited to fight for Russia in Ukraine has left the family devastated, his older sister has told the BBC. It's not just that he has died but also the unanswered questions over the young man's brutal death in a foreign land. Lemekhani Nyirenda was serving a drugs-related prison sentence in Russia but was freed and deployed to the front lines in Ukraine. "We want to know how he was conscripted without his family being notified? Was he coerced?" asked Muzang'alu Nyirenda. The family felt "robbed" by her brother's death, she added. Zambia's Foreign Affairs Minister Stanley Kakubo announced on Monday that Mr Nyirenda, who had been studying at the Moscow Engineering Physics Institute, was serving a nine-year prison sentence for a drug offence. He said Mr Nyirenda was killed on the front lines in September, but Russian authorities had only just informed Zambia of the death.   Mr Kakubo said that Zambia had demanded answers over the student's death and why he had been sent to Ukraine.  Most Zambians are shocked by the news, but also frustrated that the government has not shared more information to explain the circumstances that led to the student being deployed to Ukraine.  According to Ms Nyirenda, her brother travelled to Russia in 2019 to study nuclear engineering on a government sponsorship, a partnership between the two countries which dates back many years.  "There is so much we don't know. Why didn't the Zambian government know he was being sent to war to fight?" his older sister told the BBC. "The people that took him to that war looked down on us as a family, he was nothing to them. They used him," she said. Mr Nyirenda was working as a part-time courier when he was arrested in 2020 with a parcel containing drugs, his sister said.  "We believe he didn't know what was in the package he delivered, he told us he didn't. He would get text messages for pick-ups and instructions on where to deliver them," she said.  "On one occasion he was stopped by the police and searched and they found drugs in the package. He explained he was working for an online courier and didn't know about the parcels but he was arrested," Ms Nyirenda said. The family, however, always remained hopeful that he would return home safely.   But while he was serving his term at a medium security prison he was recruited, his family believe, by the Wagner Group, a Russian mercenary group that has been conscripting prisoners to fight for Russia in Ukraine in exchange for their freedom. In September, leaked footage showed Yevgeny Prigozhin, head of the Wagner group, outlining the rules of fighting, such as no deserting or sexual contact with Ukrainian women, and then giving the prisoners five minutes to decide if they want to sign up. Ominously, he told the prisoners he would get them out of jail alive but said he could not promise to bring them back alive. Born to university professionals Edwin and Florence Nyirenda, Lemekhani was the youngest of four children.  Even while in prison he found a way to communicate with his loved-ones in Zambia. The last time his parents heard from him was on 31 August on a cryptic phone call that filled them with concern. "He told my parents: 'I am no longer in prison but where I am is confidential'. My parents were worried, we all were when he shared this. We knew he was a prisoner in a foreign country where he had no rights, we were worried about what was going on, but he could not share more and my parents didn't probe him further," Ms Nyirenda said.  The family notified the Zambian authorities of the odd call and were assured of an investigation into his whereabouts, but months later came the news of the young man's death. "He was young, they stole his life away from him. He's got a twin brother, they've stolen my brother's other half," his sister said through tears. "Lemekhani had so many plans. He was studying so he could come back and pamper my mother. He had plans to help rebuild Zambia. They've robbed us," she said.  "There is no closure, only questions. We want him home so we can lay him to rest in peace. We want him back with the people who love him but we deserve answers," said Ms Nyirenda. His body, according to Zambian officials, has been transported to Russia's southern border town of Rostov in preparation for his repatriation to Lusaka where his family will bury him.  Further inquiries by the BBC to Zambia's ministry of foreign affairs have gone unanswered.  Zambia has taken a neutral position on the Russia-Ukraine war, like many other African countries, but says it condemns any form of war.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/business-63652665</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Taylor Swift ticket sales cancelled amid high demand</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tickets to see Taylor Swift live in concert sold so swiftly the general public never even had a chance to buy. Ticketmaster, the company selling seats to the singer's US tour, cancelled the public sale on Thursday, citing "extraordinarily high demands on ticketing systems and insufficient remaining ticket inventory". It has already sold more than 2 million tickets in pre-sales for select groups. The company has come under criticism after the demand crashed its website. "I got so close three or four times and the website broke. It was agonising," said mum Nancy Abulmagd, one of the fans who had won the lottery to participate in a pre-sale. She spent hours on Tuesday in a virtual queue, behind thousands of other people, trying to score seats for her 11-year-old daughter and friends, only to have the website crash repeatedly and eventually turn her away, empty-handed.  "The experience was really deflating. It messed with your emotions and sucked up your whole day," the 41-year-old, who lives in New Jersey, said.  The firm has blamed the problems on a "staggering number of bot attacks" that overwhelmed its website as well as "historically unprecedented demand" for the singer, who first burst on the scene in 2006 and has supplied a steady stream of hits ever since. Her latest album, Midnights, has topped charts around the world.   The company said more than 3.5 million Swifties, as her followers are known, registered in advance as "verified fans" in hopes of getting tickets for her 52-city US tour in the pre-sale. Unlike Nancy, most - two million - were placed on the waitlist. Ticketmaster also hosted a pre-sale for people carrying a credit card from Capital One, the company sponsoring the 52-city tour. Despite issues during the pre-sales that Ticketmaster estimated affected about 15% of interactions across the site, the company said it still sold more than 2 million tickets on 15 Nov - the most ever for an artist in a single day. "While it's impossible for everyone to get tickets to these shows, we know we can do more to improve the experience and that's what we're focused on," the company said. Ticketmaster says the pre-sale system is intended to help prevent ticket touts - known as scalpers in the US - and bots from scooping up seats. But the glitches in the process  - resale sites have already shown tickets for tens of thousands of dollars - have reignited anger at the firm, which has long faced complaints that it abuses its power over the industry. In an episode of his HBO show Last Week Tonight earlier this year, British comedian John Oliver described Ticketmaster as "one of the most hated companies on earth" - blaming it for the high prices, exorbitant fees and scarce availability that confront those hoping to attend concerts and other events. "You're kind of at their mercy," said Nancy, adding that the company could have better organised the sales given that such high demand for Taylor Swift tickets was foreseeable.   Pearl Jam aired concerns about Ticketmaster's role as the major ticket seller back in the 1990s.  The company's power has only grown since then. In 2010, it purchased Live Nation, which runs many of the country's event venues and has an artist management business.  US Democratic lawmakers, who have called for that merger to be reversed, chimed in again amid the chaos of the Taylor Swift pre-sale. "Ticketmaster's excessive wait times and fees are completely unacceptable, as seen with today's @taylorswift13 tickets, and are a symptom of a larger problem," wrote congressman David Cicilline, who oversees the House committee on competition and anti-trust. "It's no secret that Live Nation-Ticketmaster is an unchecked monopoly." "Daily reminder that Ticketmaster is a monopoly, its merger with LiveNation should never have been approved, and they need to be reigned [sic] in," wrote left-wing congresswoman Alexandria Ocasio-Cortez. "Break them up." The Department of Justice did not respond to a request for comment on the Taylor Swift affair on Wednesday.  Ticketmaster is already subject to government monitoring, oversight that was imposed when the LiveNation purchase was approved. The oversight was extended a few years ago after regulators found the firm had violated the terms of the agreement. And last month, US President Joe Biden - who has expressed concern that monopolies have become more common across the economy - said his administration would look into fees on concert tickets.  Krista Brown, senior policy analyst at the American Economic Liberties Project, is part of a coalition of artists and others who launched a campaign last month calling on the government to break up Ticketmaster. She said she was hopeful that the outrage from Taylor Swift's massive fan base would raise pressure on the administration to act. "If there was healthy competition in this space, [these problems] just wouldn't be present and customers or fans would have other services to turn to," she said. "You probably wouldn't have sites crashing... When you have one supplier this is what happens." But whether that will help disappointed fans hoping for a glimpse of Taylor Swift in concert shake it off is another question entirely. </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-europe-63637625</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MH17: Three guilty as court finds Russia-controlled group downed airliner</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A Dutch court has found three men guilty of murder for shooting down a passenger jet over eastern Ukraine in 2014, killing 298 people. The court found that a Russian-made missile supplied from Russia and fired by an armed group under Russian control brought down flight MH17. The men - two Russians and one Ukrainian - were found guilty in absentia and sentenced to life in jail. A third Russian was acquitted. The missile attack was one of the most notorious war crimes in Ukraine before allegations of atrocities there became an almost daily reality.  Many of the victims' relatives believe if the world had reacted differently, and taken a tougher stance against Russia eight years ago, the invasion of Ukraine and the geopolitical instability that has followed could have been avoided. The judges ruled that it was a deliberate action to bring down a plane, even though the three found guilty had intended to shoot down a military not a civilian aircraft. Igor Girkin, the military leader of the so-called Donetsk People's Republic, was convicted of deploying the missile and seeking Russian helpSergei Dubinsky was found to have ordered and overseen the transport of the Buk missile launcherLeonid Kharchenko was found to have overseen the Buk, acting on Dubinsky's instructions. Oleg Pulatov was the only one of the four accused to have legal representation at the trial. The judges acquitted him, although they found he knew about the missile. On 17 July 2014, 298 people, including 80 children and 15 crew, boarded Malaysia Airlines flight 17 to Kuala Lumpur at Amsterdam's Schiphol Airport. The plane was cruising at 33,000 feet over Ukraine. It was the early days of Russia's efforts to control parts of the country.  At the time this was a relatively low-level conflict zone, but fighting had recently expanded into the air. In the preceding months a number of military planes had been shot down.  In response, Ukraine closed the airspace at lower altitudes - up to 32,000 feet. But planes were still crossing the country. The Malaysia Airlines Boeing 777 was flying 1,000 feet above this restricted airspace. At 13:20 GMT, it lost contact with air traffic control. Of the 298 on board from 17 countries, 196 were from the Netherlands, 43 from Malaysia, 38 from Australia and 10 from the UK. They had packed for dream holidays, an Aids conference, family reunions and more. In a flash, all plans for the future were obliterated. "I still miss them," says Silene Fredriksz, her walls adorned with snapshots of son Bryce and his girlfriend Daisy. The young couple were heading to Bali, a treat after a difficult year. Forward to 2022 and Moscow's invasion of Ukraine in February opened up barely healed wounds. "It was heartbreaking for us," Silene says. She is convinced the current conflict could have been avoided had the world taken a harder line in 2014.  "Putin has never been stopped, and still has not been stopped. And he will not stop until he is stopped," Silene said. I hope the world wakes up now, because we knew it already eight years ago." Russia has always denied any involvement and instead pumped out a range of alternative theories - suggesting a Ukrainian fighter jet fired the missile, or that Ukrainian government forces were responsible, and in some cases fabricated evidence to support their claims.  These have in turn been diligently debunked with material gathered by a team of international investigators, and they were rejected by the Dutch court. The team found the disintegration of the plane in mid-air was caused by the detonation of a Russian-made 9N314M-type warhead carried on the 9M38M1 missile, launched from the eastern part of Ukraine using a Buk missile system.  Eliot Higgins, founder of the investigative platform Bellingcat, delved into the open source evidence. His team identified links with Russia's 53rd Anti Aircraft Missile Brigade, and trawled through 200 soldiers' social media posts to confirm the identity and role of many members of the unit based at a Russian military barracks in Kursk. Bellingcat shared their findings with Dutch prosecutors. He believes the trial has laid bare indisputable proof of Russia's involvement. "I think at this point, and especially with a guilty verdict," Eliot told us, "anyone who would claim that Russia wasn't involved with this shoot down is really a ridiculous person". Based on his findings, Eliot Higgins believes the events of 2014 and 2022 are inextricably linked.   "People were just turning a blind eye to it, policymakers just weren't comfortable with calling out Russia in a way they really should have done. And they didn't react in the way that could have prevented the invasion in 2022. I think there should have been more military support for Ukraine, there should have been more sanctions, there should have been a stronger response than we saw at the time. There could have been preventative measures that would have saved a lot of lives." The trial has been an opportunity to cut through Russian disinformation. The judges rejected an alternative version of events promoted by Buk missile maker Almaz-Antey as falsified and not independently assessed. "There was the disaster itself. But the next disaster, I would say, was that Russia never cooperated. And that gave extra pain for all of us. And why was that necessary? Just say sorry," Hans de Borst tells us, as he shows us holiday photos of his 17-year-old daughter Elsemiek. He holds tight to the memories, as well as Elsemiek's passport and boarding pass, recovered intact from the wreckage. Families at the epicentre of the MH17 disaster invested their faith in the investigation led by the Netherlands. "It is extremely important to me," he says stoically, "because it's that feeling of justice needing to be done in a world that kills people who just go on holiday. If justice is not being done then your whole feeling of a good world doesn't exist anymore. So getting justice brought to you by so many people gives a good feeling and I hope, will give some peace about this subject." Piecing together clues including intercepted telephone calls, eyewitness accounts and even metal fragments found in the bodies of the crew, investigators were able to establish the type of weapon, track its route - from a military barracks in Russia, across the border to the launch site in pro-Russian separatist controlled eastern Ukraine - and identify key suspects. They are three Russians and one Ukrainian. The most prominent of them is Igor Girkin, who prosecutors say is a former colonel in Russia's intelligence service the FSB. The Kremlin has dismissed the legal proceedings and all suspects refused to appear in court. Only one, Oleg Pulatov, employed a team of Dutch lawyers to defend him in court. The judgment is unlikely to result in anyone serving time in jail for this mass murder, but the investigation has created an incontestable historical record and delivered the families some peace of mind. "We will never get our children back," Silene Fredriksz accepts, "but… we need the truth. And we need justice. This is a small part of our justice." MH17: The Search for Truth Hear more from the families' on their quest for justice. Available on iPlayer from 8pm GMT (UK only).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-europe-63659370</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ukraine war: Gas plant hit in latest Russian missile strikes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Russia has pounded Ukraine with a fresh missile barrage, hitting more energy installations and other civilian buildings less than two days after one of its heaviest bombardments yet. Seven people died when a missile hit their apartment block in Vilnyansk, near the southern city of Zaporizhzhia, the Ukrainian presidency said. A gas production plant in the east and a missile factory in Dnipro were among the latest targets, officials say. Many people are suffering power cuts. President Volodymyr Zelensky accused Russia of destroying his people's supplies of electricity and heat. Moscow has looked to justify its recent strikes by accusing Kyiv of "unwillingness" to negotiate. Photos of the Vilnyansk apartment block reduced to rubble were posted on Telegram by Kyrylo Tymoshenko, an aide to President Zelensky. One of Ukraine's largest cities, Dnipro, just north of Zaporizhzhia, was among those targeted early on Thursday. Prime Minister Denys Shmyhal said the Pivdenmash factory - which produces missiles - had come under attack. Another official said 23 people, including a teenager, had been injured after the city was shelled. The BBC was unable to confirm the latest civilian casualties independently. Just south-west of Zaporizhzhia, 70 shells were said to have landed around the city of Nikopol, leaving thousands of homes without power and water. Meanwhile, state-owned energy firm Naftogaz said its gas-producing facilities in the east of Ukraine had been subjected to a "massive attack".  Further strikes on infrastructure - as well as civilian injuries - were logged by officials in the southern Odesa region and Kharkiv in the north. The capital, Kyiv, was just one place where air raid sirens sounded. At about 08:00 local time (06:00 GMT), mobile phones started pinging with official warnings of a new missile attack across Ukraine. Local air defences swung into action and military authorities reported that four cruise missiles and five Iranian-made drones had been shot down.  President Zelensky said Russia did not want peace, but instead was bringing his compatriots "only as much pain and suffering as possible". Ukrainians are taking air raid alerts seriously after another wide-ranging assault on Tuesday. Dozens of long-range missiles pounded Ukraine that day, in what was believed to be the most intense barrage since the start of the war.  Late on Tuesday evening, fears were raised of a dangerous escalation in the war when one rocket landed outside Ukraine, killing two people in a village in Poland near the shared border. Although President Zelensky was at first insistent that this had been fired by Russia, Kyiv's allies said it instead appeared to have come from Ukrainian air defences. However, the head of the Nato military alliance, Jens Stoltenberg, said Moscow was ultimately to blame for starting the war in the first place.  Many of the missiles fired by Russia on Tuesday were intercepted - but those that did manage to strike infrastructure targets managed to further deplete Ukraine's power reserves. This has been a recent Russian tactic following setbacks on the battlefield, and its impact is starting to be felt more acutely. Residents of Kyiv woke up to a blanket of snow on Thursday morning. Emergency power shutdowns have meant that many people do not have heating in their homes.  America's top general has warned that Kyiv's chances in the short term of winning the war by taking back all Russian-occupied land are "not high, militarily". Gen Mark Milley acknowledged, however, that there could be a "political solution" in which Russia made a decision to withdraw - saying the invading power was "on its back". In recent days, there has been optimism on the Ukrainian side following the recapture of the southern city of Kherson. Reports have now emerged of civilians being tortured during the Russian occupation there. Russia has repeatedly denied committing atrocities during the conflict. In other developments, the Ukrainian government has said a deal that allows it to export grain by ships on the Black Sea has been extended for another 120 days. The agreement, brokered by the UN and Turkey, has allowed millions of tonnes of produce to be shipped out of Ukraine in recent months - easing worries about global food security.  Before it was implemented in July, Russia had been blocking Ukraine's Black Sea ports. It confirmed on Thursday that the deal would be continued "without changes".</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>https://www.bbc.com/news/world-europe-63662930</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Spain's new sex abuse law sparks jail terms row</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">A row has erupted in Spain after it emerged a landmark law to toughen penalties for sex crimes is being used by lawyers to reduce clients' existing sentences. The "only yes means yes" law was prompted by the notorious 2016 Manada or "wolf pack" case, when five men raped an 18-year-old woman in Pamplona. The new law took effect last month. But, according to Spanish media, at least four sex offenders can now leave jail early as a result of the change. Lawyers have also won sentence reductions for convicted abusers in at least eight other cases. A lawyer for the Manada gang, Agustín Martínez, also revealed he was working to get a reduced sentence for one of the five convicted of the attack. This is because the Spanish criminal code states that when a new law is introduced, new sentences contained within it can be retroactively applied to convicted criminals if they stand to benefit.  So in some cases, lawyers argued that the new law established lower minimum sentences, and that the original sentences should therefore be reduced. Spain's Equality Minister Irene Montero, who steered the new law into effect, defended it by saying "machismo may make some judges apply the law incorrectly".  Her comment "provoked uproar among the legal profession", Prof Carlos Flores, a law lecturer at the University of Valencia, told the BBC, saying Ms Montero had "decided to put all the blame on the judges, and not admit a mistake". The main judges' associations also jointly rejected her claim of male chauvinist bias. "Now 55% of Spanish judges are women, so blaming them for 'machismo' is an insult. And the legal education of judges in gender issues has been going on for a long time," Prof Flores pointed out. This row is particularly uncomfortable for the government of Prime Minister Pedro Sánchez as gender equality has been a major policy focus since it took power in early 2020.  The new law was one of the government's landmark reforms, prompted by widespread outrage after the five were found guilty of sexual abuse, but not rape, and got nine-year jail sentences during their initial trial. After mass protests, the Supreme Court in 2019 increased the jail terms to 15 years. At the original trial, the men had been cleared of rape on the grounds that neither violence nor intimidation had been used. The new Guarantee of Sexual Freedom law stipulates that victims no longer have to prove that they suffered violence or intimidation, or that they physically resisted, in order to show that they have suffered a sexual assault. Any sexual act without consent will be liable to be deemed assault. Amid controversy over the recent sentence reductions, Finance Minister María Jesús Montero said she thought the issue needed to be reviewed "because evidently the goal... wasn't to lower the sentences for abuse of minors - quite the opposite". In one recent case, a man jailed for eight years for having sexually abused his 13-year-old stepdaughter had his sentence cut by two years, by a Madrid court. A man who raped a 67-year-old woman in her own home was jailed for three years and 10 months, but a Barcelona court ruled that, under the new law, his sentence should be between two and four years. In Majorca, two sex abusers jailed for three years can now go free, a court has ruled, because they have already served two years. Prof Flores noted that Justice Minister Pilar Llop - a Socialist - had not commented on this "major legal embarrassment" for the government. He saw that silence as a sign that the new law was "adding to the division in the coalition" between the Socialists and Podemos, the junior party in the leftist coalition.  "Even if you go back to a more punitive law you cannot apply it retrospectively," he said, adding that "we are bound to have a growing number of cases reviewed". </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-asia-china-63654337</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>G20: Xi accuses Trudeau of leaks to media about China-Canada relations</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">China's Xi Jinping has been filmed accusing Justin Trudeau of leaking meeting details, days after they held talks at the G20 summit in Bali. President Xi told the Canadian PM, via a translator, this was inappropriate and accused him of lacking "sincerity". He was likely referring to reports that Mr Trudeau discussed alleged Chinese espionage and interference in Canadian elections at the sit down. The talks, which happened behind closed doors, were the pair's first in years. In the footage, filmed by journalists at the now finished gathering of world leaders, President Xi and Mr Trudeau can be seen standing close to each other and conversing via a translator. "Everything we discussed has been leaked to the papers and that is not appropriate," the Chinese leader told Mr Trudeau in Mandarin. It captures a rare candid moment of President Xi, whose image is normally carefully curated by Chinese state media. After smiling and nodding his head, the Canadian PM responded by saying "in Canada we believe in free and open and frank dialogue and that is what we will continue to have". "We will continue to look to work constructively together but there will be things we disagree on," he added. Before Mr Trudeau could finish, President Xi cut his counterpart off and asked that he first "create the conditions" - eventually shaking Trudeau's hand and walking away. A Chinese foreign ministry spokesperson played down the incident, describing it as a normal exchange that should not be interpreted as criticising or blaming anyone. The spokesperson, Mao Ning, added that Beijing supported having frank exchanges as long as they were held on an equal basis. The short but revealing exchange highlighted tensions between China and Canada, running high since the detention of Huawei Technologies executive Meng Wanzhou in 2018 and Beijing's subsequent arrest of two Canadians on spying charges. All three were later released. But tensions recently resurged following the arrest of Yuesheng Wang, a public utility worker at Hydro-Quebec, who was charged with espionage. Mr Wang "obtained trade secrets to benefit the People's Republic of China, to the detriment of Canada's economic interests," Canadian police said in a statement. At the time, Mr Trudeau and President Xi were at the G20 summit on the Indonesian island of Bali. </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-asia-63657571</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vicky Bowman: Former UK ambassador among prisoners freed in Myanmar</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Myanmar's military has freed a number of opposition figures, as well as a former UK ambassador, a Japanese filmmaker and an Australian adviser to the country's ousted civilian leader. The military said some 6,000 pardons were to mark Myanmar National Day. Ex-diplomat Vicky Bowman and journalist Toru Kubota were jailed earlier this year, while economist Sean Turnell was detained soon after the 2021 coup.  All three have flown out of the country after being deported. The military has arrested more than 16,000 people since it overthrew Aung San Suu Kyi's democratically elected government in February 2021 - sparking huge protests across the country and a widespread resistance movement. Among those seen leaving Insein prison in Yangon were Myo Nyunt, a former spokesman for her National League for Democracy, and pro-democracy activist Mya Aye. "I will be together with the Myanmar people no matter what the situation is," Mya Aye told crowds waiting outside the jail. Australia's Foreign Minister Penny Wong welcomed the release of Mr Turnell after speaking to him. Also among those to be released was Kyaw Tint Swe, a former minister and a close aide to Aung San Suu Kyi, state media said. Kyaw Htay Oo, a US-Myanmar citizen, was on the list too, but it was not immediately clear if he was on the same flight to Bangkok as the other foreigners. Who are the rulers who executed Myanmar activists?  Ms Bowman served as the UK's envoy to Myanmar between 2002 and 2006 and was running the Yangon-based Myanmar Centre for Responsible Business (MCRB) at the time of her arrest.  A fluent Burmese speaker, she is a well-known member of Myanmar's small international community. Her husband Htein Lin, a former political prisoner, was also on the list of those to be freed.  The couple were detained when they returned to the city from a home they have in Shan State. Military authorities charged them both with failing to register her as living at a different address. However, the case was likely to have been about wider political concerns than immigration offences, for which foreigners are rarely prosecuted in Myanmar. "Thousands of people jailed since the coup in Myanmar have done nothing wrong and should never have been imprisoned in the first place," said Amnesty International's Australia impact director Tim O'Connor, adding that the release should not "deter international focus from the brutality of the Myanmar military's activities since the coup in February 2021". "Under military rule in Myanmar, arbitrary arrests, unlawful detention and secretive, closed-door trials have become routine," he said, calling for "anyone who cannot be charged with a recognisable" crime to be released. Thousands of other political prisoners remain in detention. Mr Turnell, meanwhile, was detained in Yangon in February 2021, days after the military launched its coup, and was jailed for three years under the Official Secrets Act.  He was a close adviser of ousted opposition leader Aung San Suu Kyi, who since her overthrow has been sentenced to more than 20 years in prison on a range of charges. At the time, the Australian government said it rejected the court's ruling in Mr Turnell's case, noting their citizen had been tried in a closed military court. Documentary maker Toru Kobuta, 26, was arrested in July near an anti-government rally in Yangon. He was sentenced to 10 years in prison on sedition charges and for violating the electronic communications law. According to Reporters Without Borders, at least 68 journalists were detained in Myanmar before today's amnesty. Kubota, who first arrived in Myanmar in July, was filming a "documentary featuring a Myanmar person", a friend of his was reported to have said earlier this year. According to filmmaker site Film Freeway, Kubota started his career when he met a Rohingya refugee in Japan in 2014 and subsequently made "several films about refugees and ethnic issues in Myanmar". The military in Myanmar has been accused of widespread human rights violations since seizing power. According to monitoring group Assistance Association for Political Prisoners, more than 2,400 people have been killed by the military since the coup.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-asia-63633115</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>'The time to grieve is over, it is time to be angry'</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>At a crematorium outside Seoul, Song Hu-bong carefully attached a miniature bunch of flowers to the box where his daughter's ashes are displayed. "Hey kiddo, your daddy's here now," he said out loud. "Have you been well?" His 24-year-old daughter Eun-ji was one of the last victims of Seoul's deadly crush to be identified. She was among more than 150 mostly young women who were killed when a narrow alleyway became so tightly packed they couldn't breathe. Her family waited 18 agonising hours to receive the news. Doctors told them both her arms had been broken in the crush. "The time to grieve is over, now it is time to be angry," Mr Song cried in pain, describing how Eun-ji worked as a travel agent in an upmarket neighbourhood of Seoul, with dreams of travelling the world. She had a playful spirit, like him, he says, which meant the two of them got along very well. "The most heartbreaking thing is that they expected this many people, and they didn't do anything. Just a dozen police and this could have been avoided and my daughter wouldn't have died," Mr Song said. Almost three weeks on, it is increasingly clear the crush could have been prevented if authorities had been better prepared and had responded faster. Nearly 130,000 people gathered in the party neighbourhood of Itaewon to celebrate Halloween, but no police were sent specifically to manage the crowd. Investigators are looking into claims that a police report, which warned of the potential danger, was buried, then deleted. And South Koreans are debating how far the blame should extend amid fear that the wrong people are being targeted. So far no-one has taken responsibility. There have been no high-profile resignations. This is only making people angrier. "Someone very high up needs to take responsibility for this," Mr Song said. South Korea's President Yoon Suk-yeol has promised to hold all those culpable to account, but at an anti-government protest thousands turned out to demand his resignation. This evokes memories of South Korea's last major tragedy, the sinking of the Sewol ferry in 2014, which killed 250 schoolchildren. The mishandling of that crisis was a major factor in bringing down the President at the time, Park Geun-hye. President Yoon cannot afford to make mistakes. He entered office six months ago with the narrowest of wins, only to watch his approval rating plummet following a series of gaffes at home and abroad. At one point his approval dropped below 25%. He is least popular among young people, the generation whose friends were killed in Itaewon.  Most of those protesting would have come regardless of Itaewon, but this has given them another reason to rally against Mr Yoon. "I'm angry because he hasn't taken responsibility," said 27-year-old Lee Ji-ye. "He should have apologised, but instead he is trying to shift the blame onto those lower down." So far, the investigation into what went wrong has focused on the response of the local police and fire departments. The revelation that police failed to respond to emergency calls made hours before the crush has shocked people, but few feel blaming emergency services alone is the answer, especially when the lack of preparation ahead of the night is so glaring. The police and fire services say they are being scapegoated to save politicians, a move they have labelled "cutting off the tail". On Tuesday, the firefighters' union took the unusual step of suing the interior minister, who is in charge of public safety, forcing the police to investigate him. They are challenging the government's line that because the night was not an organised event, it was not clear who was responsible for keeping people safe. "This was a preventable disaster, so we need to hold accountable the people who could have prevented it," said Go Jin-young, the union head. "In South Korea we rarely hold those in overall authority responsible, but this is an important step in preventing the next disaster," he said, adding how heartbreaking it was to watch his firefighters, who risked their lives to save lives, being criticised. Even the survivors and the families of the bereaved feel they and the loved ones they have lost are being blamed for going to Itaewon in the first place. This has left many scared to speak out. One survivor told us she was haunted by a comment on social media, asking why taxes were being spent on helping those who had been injured while out drinking. The police cordons that sealed the alley have now been lifted, but most of the restaurants and bars leading off from it remain closed, while those that have reopened sit empty. Halloween decorations still adorn the walls of Cake Shop, a much-loved basement club at the end of Itaewon high street. Its owners, Sam Swanson and Sunny Won, have been unable to face the clean-up. Sam Swanson is worried the whole neighbourhood could be scapegoated, to cover up bigger problems - problems that stem from the fact there is still a stigma attached to nightlife in Seoul. "We now have a far larger night-time economy than most major cities on earth, but it has not always been supported," he said. "Itaewon is a very unique and special place. It is home to marginalised people, the gay community, trans community. It's very easy to find a marginalised community, and put the blame on them."  Instead, Mr Swanson wants to see the city's nightlife celebrated and properly governed, perhaps through the introduction of a night mayor. Demanding the president go is a distraction, he thinks, that would not bring about the necessary change. The partners are hopeful their club will survive. "This city always keeps moving, it is brutal. So, we'll keep moving too because we have to." He tailed off as his tears formed. But the scars are still fresh. In the alleyway outside, a young woman curled herself into a ball on the floor. In the dark and the rain, she sobbed into the paving stones.  Another, older woman shouted, "I'm so angry these kids, the same age as my children, had to die on the street."  Before leaving his daughter's crematorium, Mr Song visited the urn of another of the Itaewon victims. He desperately wants to meet the other bereaved families, so they can find comfort in each other, but says authorities won't put them in touch. He cannot understand why they are being kept apart. Perhaps it is to stop them taking action, he wondered. You might also be interested in:</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/technology-63654716</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>China urges military veterans to work at iPhone factory</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>China wants retired military staff to help boost production at the world's largest iPhone factory in Zhengzhou.  The call came from a Veteran Affairs Bureau of the People's Liberation Army in the same province as the plant. Output at the Foxconn factory has been hit by a local Covid outbreak. In an open letter posted on messaging app WeChat, the bureau said that veterans were always under the command of the Communist Party and should "show up where there's a need". It urged them to "answer the government's call" and "take part in the resumption of production". Foxconn, whose headquarters are in Taiwan, has many factories in China.  The plant in Zhengzhou, a city with a population of about 10 million, employs more than 200,000 workers and produces 70% of iPhones globally - about 500,000 a day. China's Covid wave earlier this year has forced the temporary closure of a few Foxconn factories.  In order to maintain production, the Zhengzhou factory has been put under a "Covid bubble" since the beginning of 2022.  Any staff who test positive are sent to quarantine centres within the factory, but this has not prevented the workers from being infected.  A few cases were found inside the factory in October - at the same time the city of Zhengzhou announced a lockdown in some districts. The actual number of infections in Foxconn was not released.  The outbreak triggered panic inside the factory. Videos shared on social media showed a large number of workers jumping fences outside the plant in an attempt to flee.  Many Foxconn staff walked miles along a road because there was no public transport available.  Apple: Chinese workers flee Covid lockdown at iPhone factoryChina Covid: Panic and fear drove iPhone factory breakoutChina Covid: Area around world's biggest iPhone plant locked down Foxconn production has since been interrupted. Research group TrendForce found just over two-thirds of the production lines in the factory were under operation. China's state-affiliated media Global Times estimated there was a need for 10,000 extra workers at the factory. Online news site NetEast reported that Foxconn has asked the local government to send at least one person from each village to the factory, but the BBC cannot verify this claim. Foxconn is the biggest employer in Zhengzhou and a top export company. By September 2022, it had exported more than 261bn yuan (£30.9bn) worth of products.   Foxconn and Apple have not yet responded to the BBC's requests for comment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/science-environment-63631563</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Winchcombe meteorite bolsters Earth water theory</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A meteorite that crashed on the Gloucestershire town of Winchcombe last year contained water that was a near-perfect match for that on Earth. This bolsters the idea rocks from space brought key chemical components, including water, to the planet early in its history, billions of years ago. The meteorite is regarded as the most important recovered in the UK. Scientists publishing their first detailed analysis say it has yielded fascinating insights. More than 500g (1lb) of blackened debris was picked up from people's gardens and driveways and local fields, after a giant fireball lit up the night sky. The crumbly remains were carefully catalogued at London's Natural History Museum (NHM) and then loaned to teams across Europe to investigate. UK meteorite fragments sell for more than goldWinchcombe meteorite gets official classificationA fireball, a driveway and a priceless meteorite Water accounted for up to 11% of the meteorite's weight - and it contained a very similar ratio of different types of hydrogen atoms to the water on Earth. Some scientists say the young Earth was so hot it would have driven off much of its volatile content, including water. For the Earth to have so much today - 70% of its surface is covered by ocean - suggests there must have been a later addition. Some say this could have come from a bombardment of icy comets - but their chemistry is not a great match. Carbonaceous chondrites, however - meteorites such as the Winchcombe one - most certainly are. And the fact it was recovered less than 12 hours after crashing means it had absorbed very little earthly water, or indeed any contaminants. "All other meteorites have been compromised in some way by the terrestrial environment," co-first author Dr Ashley King, from the NHM, told BBC News. "But Winchcombe is different because of the speed with which it was picked up. "This means when we measure it, we know the composition we're looking at takes us all the way back to the composition at the beginning of the Solar System, 4.6 billion years ago. "Bar fetching rock samples back from an asteroid with a spacecraft, we could not have a more pristine specimen." Scientists examining the meteorite's carbon- and nitrogen-bearing organic compounds, including its amino acids, had a similarly clean picture. This is the type of chemistry that could have been a feedstock for biology to begin on the early Earth. The new analysis also confirms the meteorite's origin.  Camera footage of the fireball has allowed researchers to work out a very precise trajectory.  Calculating backwards, this indicates the meteorite came from the outer asteroid belt between Mars and Jupiter. Further investigations reveal it was knocked off the top few metres of a parent asteroid, presumably in some collision. It then took only 200,000 to 300,000 years to arrive on Earth, the number of particular atoms, such as neon, created in the meteorite material through the constant irradiation from high-speed space particles, or cosmic rays, reveals. "0.2-0.3 million years sounds like quite a long time - but from a geological perspective, it's actually very quick," Dr Helena Bates, from the NHM, said. "Carbonaceous chondrites have to get here quickly or they won't survive, because they're so crumbly, so friable, they'll just break apart." The scientists first analysis, in this week's edition of the Science Advances journal, is just an overview of Winchcombe's properties. A dozen more papers on specialist topics are due to come out shortly in an issue of the Meteoritics &amp; Planetary Science journal. And even they will not be the last word. "Researchers will continue to work on this specimen for years to come, unlocking more secrets into the origins of our Solar System," co-first author Dr Luke Daly, from the University of Glasgow, said.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-europe-63655870</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Qatar World Cup: TV 2 Denmark reporter forced off air</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>This is the moment security staff in Qatar were seen trying to stop a Danish TV reporter during a live broadcast.TV 2 Denmark's Rasmus Tantholdt was reporting on the World Cup when he was approached. The journalist said security threatened to break his camera. TV 2 Denmark said it had acquired the correct accreditations to film and was reporting from a public place.Qatar's Supreme Committee later said it had apologised following the incident.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/entertainment-arts-63660028</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Brendan Fraser: Actor won't attend Golden Globes</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Actor Brendan Fraser has said he will not attend Hollywood's Golden Globe Awards next year after accusing their former president of assaulting him. The star, known for The Mummy movies, is tipped for awards success for his comeback film role in The Whale. In 2018, he said Philip Berk, head of Golden Globes organising body the Hollywood Foreign Press Association, had groped his bottom in 2003. Fraser has previously said the incident "made me retreat" and "feel reclusive". The HFPA found that Mr Berk "inappropriately touched" Fraser, but that it "was intended to be taken as a joke and not as a sexual advance". Asked in a new interview with GQ whether he would go to next year's Golden Globes if invited, Fraser replied: "I have more history with the Hollywood Foreign Press Association than I have respect for the Hollywood Foreign Press Association. No, I will not participate. "It's because of the history that I have with them. And my mother didn't raise a hypocrite. You can call me a lot of things, but not that." The 2003 incident happened at an event at the Beverly Hills Hotel, and Fraser previously told the magazine he felt Mr Berk's finger as he started "moving it around". "I felt ill," the actor said in 2018. "I felt like a little kid. I felt like there was a ball in my throat. I thought I was going to cry." Afterwards, he demanded and received an apology, but Mr Berk told GQ in 2018: "My apology admitted no wrongdoing, the usual, 'If I've done anything that upset Mr Fraser, it was not intended and I apologise.'" The HFPA concluded the incident was meant as a joke after carrying out an internal investigation. Mr Berk told GQ he had faced no disciplinary action as a result. "I knew they would close ranks," Fraser said in his latest interview. "I knew they would kick the can down the road. I knew they would get ahead of the story. I knew that I certainly had no future with that system as it was." Fraser has received glowing reviews for The Whale, in which he plays as a morbidly obese literature professor. He is widely regarded as the frontrunner to win best actor at next year's Oscars, which would normally be replicated at precursor ceremonies like the Golden Globes. Screen International's critic Wendy Ide said he was "courageous and fully committed in his first major leading feature film role for around a decade". "It's hard to imagine anyone being as captivating in the role," wrote BBC Culture's Nicholas Barber, adding that the actor "richly deserves to be nominated for a best actor Oscar". The Globes are returning as a televised event in January after this year's ceremony was dropped by broadcaster NBC following controversies including allegations of racism, sexism and conflicts of interest. Mr Berk was expelled from the troubled organisation in 2021 after sharing an article describing Black Lives Matter as a "racist hate group".</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/business-63659936</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>UK faces biggest fall in living standards on record</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The UK faces its biggest drop in living standards on record as the surging cost of living eats into people's wages. The government's forecaster said that household incomes - once rising prices were taken into account - would dive by 7% in the next few years.  It also expects the number of people who are unemployed to rise by more than 500,000.  It came as the chancellor said the UK was already in recession and set to shrink further next year.  But Jeremy Hunt said his Autumn Statement - which unveiled £55bn of tax rises and spending cuts - would lead to a "shallower downturn" with fewer jobs lost. Paul Johnson, director of the Institute for Fiscal Studies think tank, said: "Surging global energy prices have made the UK a poorer country. The result is an OBR (Office for Budget Responsibility) forecast that the next two years will see the biggest fall in household incomes in generations."  Energy and food bills have shot up due to the war in Ukraine and pandemic, and are squeezing household budgets.  Inflation - the rate at which prices rise - is at a 41-year high, which the OBR says is dragging on the economy.  The forecaster said price rises were likely to peak at 11% in the final three months of this year, thanks largely to the government's energy price guarantee scheme which limits bills.  However, it said inflation would still "erode real wages and reduce living standards" this year by the biggest margin seen since 1956, when records began.  It expects household incomes when adjusted for inflation to fall back to the levels they were in 2013. It will then take six years for them to recover, although they will still be "over 1% below pre-pandemic levels" by 2028.   Jasmine Hurley, 18, and Peter Fletcher, 22, moved to Gloucester about a month ago and are living with Jasmine's mum. Peter, who works in a restaurant as a waiter, says it has got harder to save money and he is worried.  "It's gone from being able to save a few hundred every month to, can I save £50 a month?" he told the BBC.  "If nothing changes this is going to get worse until either we crumble, or something changes." Jasmine has finished school and is looking for a job. She feels upset about having to cut back on things and says the future feels bleak.  "If I want to buy a house, it's going to be impossible. They need to cut down on house prices, it's affecting all of us - especially working class people." This is likely to be a relatively shallow recession for the economy as a whole - but for households, it will mean the wipeout of gains in living standards, a return to 2014.  It's a consequence of multiple factors. Looming large has been a spike in energy prices and food costs. The government support package has cushioned only part of the blow inflicted by the former. Then there's the policy response to soaring inflation: increases in interest rates from the Bank of England, designed to reduce price pressures by squeezing finances. The official forecasts reckon that house prices will fall by more than 5% in 2024 as buyers feel the pinch. And there are the tax rises, targeted towards the better off, which will slowly eat into their fortunes. The tax man is set to take the biggest slice of the nation's income since World War Two. Hard-pressed employers, too, are granting pay rises that are failing to match the cost of living - and ultimately, the Office for Budget Responsibility predicts, they will cut over 500,000 jobs.  It's a perfect storm. Households may be far from clear of it by the time the general election approaches in 2024.    Along with high inflation, the OBR says the UK is also struggling with rising interest rates, which the Bank of England has put up to 3% to try to battle inflation.  House prices are also forecast to fall by about 9% over the next two years as a result of higher mortgage costs.  Autumn Statement 2022: Key points at-a-glanceWhat the Autumn Statement means for youEnergy bills to rise to £3,000 a year from April The OBR thinks that, taken together, this will tip the economy into a recession "lasting just over a year" as consumers spend less and businesses cut investment.  It expects the UK economy to shrink by 1.4% in 2023 before growth gradually picks up again.  The forecaster also thinks the unemployment rate will rise from 3.6% today - near a record low - to 4.9% in 2024 before falling back.  A recession is defined as when a country's economy shrinks for two three-month periods - or quarters - in a row.  Typically companies make less money, pay falls and unemployment rises. This means the government receives less money in tax to use on public services. Mr Hunt hopes his Autumn Statement will help restore the UK's economic credibility after the controversy of September's mini-budget. Investors were spooked by the mini-budget's promise of large, unfunded tax cuts, with the pound falling to a record low and government borrowing costs shooting upwards.  Mr Hunt, who has scrapped most of his predecessor's plans, promised on Thursday to bring government debt down as a percentage of economic output within five years under a new fiscal rule, not three years as previously planned. He added that the budget deficit - the difference between what the government brings in in taxes and what it spends - would be brought below 3% of output (or gross domestic product) within five years. On Thursday, the pound fell slightly against the US dollar after Mr Hunt delivered his statement. The government's borrowing costs remained broadly unchanged.  With additional reporting from Katie Thompson and Jamie Moreland. </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/business-63657350</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Ukraine war: Billionaire Andrew Forrest launches $25bn fund for reconstruction</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Australian mining billionaire Andrew Forrest has launched an investment fund that is hoped will be worth at least $25bn (£21bn) to help rebuild war-torn Ukraine. Mr Forrest and his wife have committed $500m to the fund, which its organisers say could eventually grow to $100bn. The Ukraine Green Growth Initiative plans to invest in primary infrastructure such as energy and telecoms networks. President Zelensky welcomed the move. "We will take advantage of the fact that what the Russians have destroyed can readily be replaced with the latest, most modern green and digital infrastructure," Mr Zelensky said. The fund said it had been working with Larry Fink, the chairman of investment giant BlackRock, and hopes to gain the support of sovereign wealth funds and other professional investors. Since starting work on the investment fund in early March, Mr Forrest said he had discussed the plan with a number of world leaders including US President Joe Biden, then-UK Prime Minister Boris Johnson and European Commission President Ursula von der Leyen. "The president [Zelensky] sees that as an opportunity to completely replace old coal-fired [and] nuclear power stations with brand new green energy," Mr Forrest told the BBC. "That capital would be available the instant that the Russian forces have been removed from the homelands of Ukraine," he added. Mr Forrest made his fortune from Australia's mining boom. He is the founder and executive chairman of iron ore giant Fortescue Metals. In recent years he has turned his attention to sustainable technology, with initiatives to decarbonise his mining operations and become a major producer of green hydrogen. The Russian invasion of Ukraine has seen large parts of the country's infrastructure destroyed or damaged. Recent Russian missile attacks have targeted Ukraine's energy network including its electricity generation plants. In July Ukrainian Prime Minister Denys Shmyhal said it would cost $750bn for the country to recover from the war, which had caused $100bn of direct damage to infrastructure. This week Russia angrily rejected international calls for it to pay for war damage it has inflicted in Ukraine. It came after the UN General Assembly passed a resolution saying Russia should face the consequences of its actions, including paying reparations. General Assembly resolutions carry symbolic weight but do not have the power to enforce compliance. The Kremlin said it would work to stop the West seizing its international reserves to pay for reparations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/uk-wales-63656816</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Chinese ownership of Newport microchip plant a 'security risk'</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>The takeover of Britain's largest microchip plant by a Chinese-owned company must be reversed, the UK government has said. Newport Wafer Fab was acquired by Dutch-based technology company Nexperia, a subsidiary of Shanghai listed Wingtech, in July 2021. However, Nexperia must now sell 86% of its stake "to mitigate the risk national security" following a review. The firm said it was "shocked" and would appeal against the decision. The technology made at the plant allows electricity to flow through devices and are the fundamental components of everything from smartphones to the vast data centres powering the internet and are found in millions of products. The Wafer Fab deal came under scrutiny amid an ongoing global shortage of computer chips which has been exacerbated by the pandemic and severely hit a wide range of industries. Chips and China: Concerns over UK factory buyoutChip shortage could last into 2023, says car bossHow will 'chipaggedon' affect you?The humble mineral that changed the world At the time of the takeover, the Newport plant was producing about 35,000 wafers a year. The UK government had faced pressure to intervene, not least from the Commons Foreign Affairs Committee, which said that Nexperia's takeover represents the sale of "one of the UK's prized assets" to a strategic competitor and potentially compromised national security.  In its decision, the UK government said the takeover of Newport Wafer Fab created two risks to national security. The first related to Nexperia's development of the Newport site, which the government said could "undermine UK capabilities" in producing compound semiconductors. The second, the plant's location as part of a semiconductor cluster on the Duffryn industrial estate, could "facilitate access to technological expertise and know-how".  It said the close links that existed in Newport "may prevent the cluster being engaged in future projects relevant to national security".  A report in April said an investigation pledged by then-Prime Minister Boris Johnson by the National Security Advisor had not happened. However, the decision was called in by the then-Business Secretary Kwasi Kwarteng in May on national security grounds. It was left to his successor Grant Shapps to make the decision following delays due to the changes in prime minister and the cabinet.  Nexperia said it did not accept the national security concerns and criticised the UK government for not entering "meaningful dialogue".  Toni Versluijs, head of its UK operations, said: "We are genuinely shocked. The decision is wrong, and we will appeal to overturn this divestment order to protect the over 500 jobs at Newport.  "The decision is disproportionate given the remedies Nexperia has proposed. It is wrong for the employees, for the UK semiconductor industry, for the UK economy and for the UK taxpayer - who could now be faced with a bill of over £100m for the fallout from this decision. "We rescued an investment-starved company from collapse. We have repaid taxpayer loans, secured jobs, wages, bonuses and pensions and agreed to spend more than £80m on equipment upgrades. The deal was publicly welcomed by the Welsh government." A government spokesman said: "The UK has a number of strengths within the semiconductor sector, including in south Wales, and through our forthcoming semiconductor strategy we will enable this technology to continue to support the UK and global economy." The Welsh government said the UK government's decision had provided some "welcome clarity". "Our immediate priority now is to safeguard the future of the hundreds of highly skilled jobs in Newport," it added. WHAT'S KILLING OUR RIVERS?: Wyre Davies investigates what and who is to blameX-RAY: The Welsh consumer show fighting for YOUR rights</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/business-63648505</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Elon Musk tells Twitter staff to work long hours or leave</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elon Musk has told Twitter staff that they must commit to working "long hours at high intensity" or else leave the company, according to reports. In an email to staff, the social media firm's new owner said workers should agree to the pledge if they wanted to stay, the Washington Post reported. Those who do not sign up by Thursday will be given three months' severance pay, Mr Musk said. The BBC has contacted Twitter for comment. In his email to staff, also seen by The Guardian, Mr Musk said that Twitter "will need to be extremely hardcore" in order to succeed. "This will mean working long hours at high intensity. Only exceptional performance will constitute a passing grade," he said. Workers were told that they needed to click on a link by 17:00 EST on Thursday, if they want to be "part of the new Twitter". He added: "Whatever decision you make, thank you for your efforts to make Twitter successful." The world's richest man has already announced half of Twitter's staff are being let go, after he bought the company in a $44bn (£38.7bn) deal. Mr Musk said he had "no choice" over the cuts, as the company was losing $4m (£3.51m) a day. He has blamed "activist groups pressuring advertisers" for a "massive drop in revenue". What is behind the big tech companies' job cuts? Musk tells Twitter staff remote working will endMusk blames 'activists' for Twitter earnings drop A host of top Twitter executives have also stepped down following his purchase of the firm. Last week, the entrepreneur told Twitter staff that remote working would end and "difficult times" lay ahead, according to reports. In an email to staff, the owner of the social media firm said workers would be expected in the office for at least 40 hours a week, Bloomberg reported. Mr Musk added that there was "no way to sugar-coat the message" that the slowing global economy was going to hit Twitter's advertising revenues. But tech investor Sarah Kunst said the real reason Twitter is facing difficulties is because Mr Musk's takeover has saddled the company with debt.  His behaviour since the takeover has also led some advertisers to pause their spending, she said.  "He's now trying to inflict that pain and uncertainty on the employees," she said. She added that there was a question mark over how enforceable Mr Musk's email about hours to staff really was. "Can you just send an email to staff who already work for you and just unilaterally change their working contract? That remains to be seen." Elon Musk likes to think of himself as "hardcore".  He says he works 100+ hour weeks. He sometimes sleeps at the office.  And he wants that for his staff too.  His management philosophy is about putting together small collections of highly motivated and capable employees.  He says he'd much rather have a small number of exceptional people than many who are "pretty good and moderately motivated".  With this email, he appears to applying that philosophy. He wants just true believers at Twitter, people who are fully aligned with what he's doing.  There are plenty of staff who do believe in Twitter's mission. There are also staff working for Twitter who will relish working closely with Mr Musk.  But his directives to staff feel at times autocratic. The danger is he loses top staff by appearing cavalier and arrogant.  And of course, if everyone at Twitter decided to take Elon Musk's offer of severance at once, it's hard to see how Twitter could function in the short term.  Mr Musk himself has been sleeping at Twitter in recent weeks, even while leading electric carmaker Tesla and rocket company SpaceX. He described his work habits in a US court on Wednesday, where he appeared to defend the eye-popping $56bn pay package he received from electric carmaker Tesla in 2018. "I pretty much work all the time, with rare exceptions." he said.  In response to questioning, he later added that the "fundamental organisational restructuring" at Twitter would be complete by the end of this week. One way Mr Musk could lighten his workload is by sharing the leadership of his other companies.  At the hearing, James Murdoch, a Tesla director and the son of media tycoon Rupert Murdoch, said that Mr Musk had identified a potential successor to head the car maker. Asked to confirm that Mr Musk had never identified a potential new Tesla chief executive, Mr Murdoch said "he actually has", adding that it had happened in the "last few months". He didn't identify who the potential successor was. Dan Ives, a senior equity analyst at Wedbush Securities, said that Twitter's culture had "dramatically changed" with Mr Musk at the helm. "Elon Musk is not going to be doing candlelight dinners and playing ping pong in Twitter's cafeteria and this is a shock to the system," he said. "But he also needs to play nice in the sandbox because if key Twitter engineers and developers leave, this will be a major void in the Twitter ecosystem," he warned. "There's a careful balance ahead for him, in this tightrope act." Do you work long hours either willingly or because you feel you have no choice? Please share your story by emailing: haveyoursay@bbc.co.uk.  Please include a contact number if you are willing to speak to a BBC journalist. You can also get in touch in the following ways: WhatsApp: +44 7756 165803Tweet: @BBC_HaveYourSayOr fill out the form belowPlease read our terms &amp; conditions and privacy policy If you are reading this page and can't see the form you will need to visit the mobile version of the BBC website to submit your question or comment or you can email us at HaveYourSay@bbc.co.uk. Please include your name, age and location with any submission. </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/business-63633479</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Vegan 'cheese' market booms as demand grows</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>As a teenager, Brad Vanstone used to help out on his grandparents' dairy farm in Devon during the holidays. But in an unexpected twist, decades later he now has quite a contrasting career running a vegan cheese-substitute business. He set up the brand - Willicroft - in 2017, after switching to a plant-based diet, and struggling to give up cheese. "I looked high and low in supermarkets for good replacements, but struggled to find any," says Mr Vanstone, who like his business is based in Amsterdam. Made from assorted white beans, such as haricot and cannellini, Willicroft now offers five products - "Young Dutch", which imitates gouda; "Italian Aged", which aims to be like parmesan; "Greek White", a feta substitute, plus a fondue, and a sauce made for the dish macaroni cheese. These are available to buy at numerous stockists across the Netherlands, and at the firm's one store in central Amsterdam. And overseas expansion is now continuing, with plans to launch in Germany before the end of this year. The firm's products are already on sale in the UK at the seven branches of Amazon's Whole Foods chain, and it is looking to add another UK supermarket to its roster. However, Mr Vanstone says his plans to launch a wholesale business in the UK, to sell to other retailers, have been fraught with difficulties following Brexit. "If we were to do it independently, to give you an example of how much harder it is, we used to be able to send samples to the UK for €20 ($21; £17.60), and it would take two to three days max [for them to get to the addressee]," he says. "Now if we send samples it's €200 minimum, and one in three won't get there." Brexit issues aside, the sale of vegan substitute cheese is a global market continuing to see stellar levels of growth. Sales are predicted to rise to $7bn by 2030, up from $2.5bn in 2020, according to one report. In a similar story to Mr Vanstone's, Nivi Jasa co-founded I Am Nut Ok with his partner in 2017. He was inspired after moving to a plant-based diet and finding the then available vegan substitute cheeses "pretty terrible". "I said I'm not going to eat vegan cheese at all," recalls Mr Jasa, who is a London-based Italian. "But my partner is from LA, which is 10 years ahead [in terms of food trends], and so she made some cashew cheese cream and I loved that. "At the time we were both broke and said 'why don't we combine our love of food, and our designer backgrounds, and create a vegan cheese brand so we have enough money to pay the bills?'." The company started life on a stall at Broadway Market in  Hackney, east London, and now has eight products sold online, and across more than 200 stockists in the UK including Selfridges.  "We stand for flavour," says Mr Jasa. "Most supermarket [vegan] cheese is either too plain or has a plastic rubbery texture." However, like many small businesses, he says it's been a challenging year. "We haven't seen any growth. There's been rising energy costs, the cost of ingredients such as sunflower oil from Ukraine is super expensive, and people are spending less." Business was previously stronger when the company exported to Germany and France. "But then Brexit came and we were hit by problems, such as more paperwork at customs, and paying import tax, and risk of delays," says Mr Jasa. "It was too risky and expensive if stock needed to be thrown out." Plus, he says, there's confusion on both sides of the border about how to classify vegan substitute cheese. The brand is starting to work with an international distributor to try to help remove some of the obstacles.  The global leader when it comes to vegan substitute cheese is Greek-based Violife, whose products are exported to more than 60 countries including the US, UK, Germany and the Netherlands.  One of reasons it has proved successful says Victoria Slater, Violife head of Northern Europe, is that the brand, whose products are made from coconut starch, is "very adaptable to different regional demands".  "For example, every country will have their preferred cheese," she says. "Such as halloumi in Cyprus, manchego in Spain, and cheddar in the UK. We are able to flex the flavour and formats to best reflect the specifications of the 60 countries we're in." Violife now also sells Camembert and blue cheese substitutes. Yet Ms Slater adds that the sector is feeling the effects of the continuing cost of living crisis. "It's a tough macroeconomic environment in a lot of countries. Cheese is a choice product, not a necessity like toilet roll." Still, it's a market that is undoubtedly growing, as more people move towards a plant-based diet. UK supermarket Tesco tells the BBC that it has seen sales of vegan substitute cheeses grow by nearly a third over the past year. "Plant-based diets are becoming increasingly popular, although cheese is often where people have struggled previously to find the right alternative to suit them," says Fay Hasnip, plant-based product development manager at Tesco. "With demand rising, we have placed an increased focus on offering our customers a wide range of plant-based cheeses that deliver on quality, taste and texture, to offer some variety and choice for plant-based shoppers." Angharad Goode, a food and drink research analyst at market insight firm Mintel, says the increased public spotlight on sustainability has seen many people reassess their dairy usage. It comes as research earlier this year for Violife claimed that the manufacturing of its products released half as much carbon as the production of dairy cheese. Ms Goode adds that vegan cheese substitutes are also growing in popularity simply because they are now more widely available. She points to some of the best-known diary cheese brands, such as Philadelphia and Babybel, releasing vegan versions. "This is boosting availability and visibility, and helping to dial up price competition," she says. More from the BBC's series taking an international perspective on trade. However, Ms Goode adds that the typically high price of vegan cheese substitutes. poses the biggest barrier to further sales growth, especially with more of us now minding our pennies. Take two prices at UK supermarket Sainsburys. You can buy 400g of its own-brand medium cheese for £2.85. Yet 200g - half the weight - of Violife's "Epic Mature Cheddar Flavour Block Vegan Alternative to Cheese" costs £2.75. Ms Goode also thinks that some producers of vegan cheese substitutes need to ensure that they "deliver on the eating experience" - make them taste better. Back in Amsterdam, Mr Vanstone agrees. "What's available at mass retail is still really poor, both in terms of the taste, the actual impact of the product and also the nutrition. "It's not really servicing anything other than just being a replacement. That being said, there is a growing number of good products out there and the potential is obviously enormous."</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/business-63460919</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Small firms have a big role fighting climate change</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>For the past two years, Nikhil Arora has been working hard to cut his organic gardening company's carbon footprint, taking small steps, like shifting away from plastic packaging, to make his business, Back to the Roots, the most environmentally efficient it has ever been. The California-based company is small, employing just 21 people, but it expects to make roughly $100m (£84m) in sales this year. Mr Arora says the moves it has made are critical to the fight against climate change.  "Small businesses are the lifeblood of the US economy. We power most of the jobs, most of the growth and, therefore, I think we will also power most of the change," says Mr Arora, co-founder of the company, which started selling organic gardening kits more than a decade ago. Corporate giants such as Amazon and Walmart have faced much of the public pressure over sustainability goals. But a company's supply chain produces 11 times more emissions than the company on its own, the Carbon Disclosure Project (CDP), a non-profit charity that runs the global emissions disclosure system, has found. In industries like retail, it found that supply chains produce 25 times more emissions than the company itself.  "You can't solve the climate problem without addressing small businesses," says Michael Vandenbergh, law professor at Vanderbilt University and director of its Climate Change Research Network. "They make up a very large share of the carbon emissions associated with big companies' supply chains... so you can't get to any meaningful change without dealing with small businesses." Small businesses make up 99% of US companies and employ nearly half of the American workforce.  But their sheer numbers make it easy for them to fly under the radar and mean they're tough to regulate.  Advocates say focusing on supply chains can make it easier to engage with small businesses, unlocking billions in emissions savings. "For an individual company, their relative impact is not high," says Simon Fischweicher, head of corporations and supply chains for the CDP's North America branch. "But when you think about the collection of tens, hundreds and millions of small enterprises that are suppliers to these large corporations, they're incredibly important. "So global value chains are one of the most effective tools driving impact." If it's true to say the US is the engine of the world economy, then small and medium-sized businesses are the fuel that drives that engine. Small businesses create nearly two-thirds of new jobs in the workforce and account for 44% of US economic activity. So what's the secret to their success? What challenges do they face and which are the best cities and regions for them to thrive? Read more from our Small Business USA series As the climate crisis worsens and larger companies look for the most efficient ways to reduce their environmental impact, cutting a company's "Scope 3" emissions - or emissions from the supply chain - has gained traction with big companies.  At COP 27 in Egypt, the UN's annual climate summit, more than a dozen of the world's largest food firms said they planned to end deforestation in their supply chains by 2025, making collaboration with smaller suppliers key to accelerating climate action. US retail corporation Walmart attributes 95% of its emissions to its supply chain, which includes thousands of small suppliers. "From day one, working with small businesses was key," says Jane Ewing, senior vice president for sustainability at Walmart. "We feel we can play a really important role in saying, 'Hey, here's some tools,' and then we help guide them along that journey. We've seen more [small businesses] lean in than ever before." In 2017, Walmart launched Project Gigaton, which aims to use its might to help small firms in its supplier network track their carbon footprint, set sustainability goals, and access more favourable loan terms.  Mr Arora's Back to the Roots joined the programme in 2019, along with 2,400 other businesses, in the hope of lowering its emissions. Mr Arora, who counts Walmart as his biggest client, credits the retailer with helping his business find, solve and track its main sources of carbon emissions, pushing it towards its goals. "This is by far the most efficient we've been in terms of carbon emissions. We've been able to scale this company at an exciting pace while also not increasing our environmental footprint," he says.  Walmart says the success at Back to the Roots has been replicated across its network, helping to reduce greenhouse gases by 574 million tonnes since 2017. That has put it halfway towards its goal of cutting emissions by one billion tonnes by 2030 - an impact equivalent to Germany going carbon neutral for a year.  Walmart is not alone in taking action. Overall, CDP has found that roughly 200 major corporations have leaned on their suppliers to reduce their carbon footprints, helping to reduce greenhouse gas emissions by 1.8 billion tonnes last year alone. But for many small companies, being sustainable is a luxury.  In a recent survey by the SME Climate Hub, a platform that works with small and medium enterprises to cut their emissions, two-thirds of small business owners said they were concerned they would not be able to reduce their carbon footprint, citing knowledge, funding and time. About 70% said they would need access to external funds to reduce their emissions.  The economic climate does not favour small businesses either, says Pamela Jouven, director of the SME Climate Hub, often making sustainability their last priority.  "They're having to face this perfect storm of rising energy prices, inflation and supply chain disruption. So the very first challenge for these small businesses is how to survive. It's hard for them to make the time to add another project to the list," she says.  At the Carbon Disclosure Project, Simon Fischweicher is staying optimistic. One day he hopes that supply chain decarbonisation will become so commonplace and accessible that even small businesses will start looking at how they can reduce their own value chain's carbon footprint. "When we'll start to see [supply chain decarbonisation] be adopted by smaller companies, that's when we know we're going beyond that first tier of impact, and we'll start to see real change happen."</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/uk-63670354</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Camilla pays tribute to 'greatly missed' mother-in-law, Queen Elizabeth II</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Camilla, the Queen Consort, has paid tribute to her mother-in-law Queen Elizabeth II.In her first speech in her new role, she said the late monarch was "greatly missed" and that she and the King had drawn "immense comfort" from messages they received after her death. She was addressing winners of the Queen's Commonwealth Essay Competition and went on to say "the written word has a unique ability to connect, to heal, to reassure and to offer hope, even in the midst of grief."Queen so greatly missed by us all, says Camilla</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/uk-63670354</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Camilla pays tribute to 'greatly missed' mother-in-law, Queen Elizabeth II</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Camilla, the Queen Consort, has paid tribute to her mother-in-law Queen Elizabeth II.In her first speech in her new role, she said the late monarch was "greatly missed" and that she and the King had drawn "immense comfort" from messages they received after her death. She was addressing winners of the Queen's Commonwealth Essay Competition and went on to say "the written word has a unique ability to connect, to heal, to reassure and to offer hope, even in the midst of grief."Queen so greatly missed by us all, says Camilla</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/uk-politics-63663830</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Tory MP Vicky Ford challenged on UK growth claim</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Vicky Ford, Conservative MP for Chelmsford has claimed the UK had better economic growth since Covid-19 than countries including the United States and Canada.Ms Ford was speaking on the BBC's  Politics Live programme when she made the claim, which presenter Jo Coburn then challenged. Coburn referred to a chart that reflected Organisation for Economic Co-operation and Development (OECD) statistics, that showed the UK's economic growth stood at -0.4%, compared with 4.2% for the US and 2.1% for Canada.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-europe-63663828</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Ukraine war: Dashcam footage shows near-miss blast in Dnipro</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A video verified by the BBC and shared on Ukrainian President Volodymyr Zelensky's Telegram account shows the moment a driver narrowly avoids being hit by an explosion in Ukraine's central-eastern city of Dnipro.In recent weeks, Russia has looked to target key Ukrainian energy infrastructure, following a series of battlefield setbacks. Officials have said a missile factory and gas production facility in Dnipro were among the latest targets, and at least four people have died in one area.The strike comes days after one of Russia's most intense bombardments of the war.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-63655871</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>G20: Xi Jinping criticises Justin Trudeau in an awkward exchange</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Xi Jinping and the Canadian PM, Justin Trudeau, have had a blunt and awkward exchange at the G20 summit.The Chinese president addressed concern over alleged leaks of the pair's closed-door meeting.He said: "Everything we discussed has been leaked to the papers and that is not appropriate."Mr Trudeau replied saying the Canadian belief is in "free and open dialogue".Xi criticises Trudeau in awkward exchange at G20</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-63656352</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Nato chief: Poland strike was most likely from Ukrainian air defence</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Nato agrees with Poland's early assessment of Wednesday's missile strike - in that it most likely came from Ukrainian air defence.Speaking to the BBC, secretary general Jens Stoltenberg said "accidents happen" in war but still put the onus on Russia. He said Russia bears the "ultimate responsibility" saying "it would not have happened if Russia hadn't waged a brutal war of aggression against Ukraine".He emphasised the need for these type of mistakes not to "spiral out of control", adding that there are lines of communication between the US and Russia, and between Nato and Russia.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/science-environment-63603861</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Oil pollution: Investigation reveals Egypt’s 'super coral' at risk</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>As Egypt hosts world leaders at COP27 to discuss action over climate change, an oil terminal is dumping toxic wastewater on the country's Red Sea coast, an investigation by BBC News Arabic has found. A rare form of coral, that offers hope for preserving ocean life as the planet warms, could be a casualty. Leaked documents obtained by the BBC and non-profit journalism group SourceMaterial reveal that "produced water" from Egypt's Ras Shukeir oil terminal is being dumped into the Red Sea every day. The barely treated wastewater - which is brought to the surface during oil and gas drilling - contains high levels of toxins, oil and grease. The documents, which were issued by the Gulf of Suez Petroleum Company (Gupco) in 2019 to try to hire a company to treat the water, say the pollution levels "do not comply" with Egyptian environmental laws and regulations. Every day, 40,000 cubic metres of this toxic water - the equivalent of 16 Olympic-sized swimming pools - is going into the Red Sea, the documents say. Dr Greg Asner, an ecologist at Arizona State University, says the information is "very alarming", showing pollution from lead, cadmium, copper, nickel and other heavy metals. "You don't have to be an expert to know that something is not right here," he says. Fossil fuel delegates spike at climate summitThe big issues facing Egypt's COP27 climate summitSwimmer attempts Red Sea crossing for climate changeThe super-corals of the Red Sea The leaked documents indicate Egypt's government has known about the wastewater problem since at least 2019, after British oil company BP sold its 50% stake in the plant to United Arab Emirates' firm, Dragon Oil. The other 50% is owned by Egypt's state oil company. The sale by BP was part of a decision to dispose of company assets worth $10bn (£8bn at the time), seen by many commentators as a plan to help it meet climate targets. Caroline Lucas, a UK MP for the Green Party, says: "It comes as no surprise that BP and others would rather sell on their dirtiest, most environmentally destructive assets, than clean them up themselves." BP told the BBC the sale of its share of Gupco was for financial reasons, not as part of any plan to meet climate targets. It referred questions about the wastewater to Gupco. Gupco and Egypt's environment ministry did not respond to the BBC's request for comment. Access to the facilities at Ras Shukeir is restricted to oil workers and government inspectors. However, the BBC was able to use satellite images to examine the extent of the water pollution. Analysis of high-resolution satellite images shows a wide plume of green effluent flowing into the sea, travelling up to 20 km (12 miles) south into areas harbouring marine life. Satellite analysis company Soar.Earth used remote water quality monitoring techniques to examine the plume. The company's remote sensing expert, Sergio Volkmer, says it is "not made of some algal bloom" but from something beneath the surface, such as sediments or liquid emitted locally. That same green plume is visible in the earliest satellite image the BBC could find, from 1985, indicating that the oil terminal may have been dumping "produced water" into the Red Sea for decades. It still appears in the most recent image of the plant, from September 2022. Dr Asner, the Arizona State University ecologist, also examined the area using the Allen Coral Atlas, a high-resolution satellite tool that monitors coral reefs. He says while there are signs of a thriving ecosystem on either side of the impacted area, "suddenly you can see it's hard to see through the water" because of "something on the surface which looks like pollution". Dr Gera Troisi, a lecturer at Brunel University London who studies the effects of toxins on organisms, says compounds contained in "produced water" can react with sea water, absorb oxygen, and suffocate even the most resilient marine life. "We're suffocating them and then shielding them from the light because of all of these suspended solids," she says. The UN has warned that if global average temperatures rise by 1.5C, 90% of the world's coral will be wiped out. But despite sea temperatures rising faster in the Red Sea than the global average rate, the region's "super coral" has so far proved to be resilient to the effects of climate change. Some scientists believe Red Sea coral could hold the secret to saving coral around the world. One of them, oceanographer Sylvia Earle, says more research is needed to find out what makes this coral less vulnerable to rising temperatures. But she says it is of "enormous importance to the international community because of the possibility of transplanting corals from the Red Sea to rehabilitate the degraded reefs in other parts of the world, like the Great Barrier Reef".  Despite covering only 0.1% of the oceans, coral reefs are home to 30% of marine biodiversity. In the Red Sea, they are a lifeline for endangered species such as hawksbill turtles, as well as supporting fishing, marine agriculture and tourism - which provide income for millions of Egyptians. Scientists, both in Egypt and internationally, have recommended the area where Gupco operates should be included in a new extended marine protection zone in the Red Sea, to cover the whole an area known as the Great Fringing Reef. Currently about 50% of the reef is in the zone.  NGOs expected the extension to be announced by the environment ministry of Egypt at COP27. But so far no announcement has been made. Oil companies, Shell and Chevron, have carried out recent surveys for new oil and gas wells some 30 km away from protected parts of the Great Fringing Reef. The COP27 global climate summit in Egypt is seen as crucial if climate change is to be brought under control. More than 200 countries are attending the summit to discuss further measures to cut emissions and prepare for climate change, and it could lead to major changes to our everyday lives. What will climate change look like for you?Will the UK meet its climate targets?How extreme weather is linked to climate change Climate stripes visualisation courtesy of Prof Ed Hawkins and University of Reading.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/entertainment-arts-63634833</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>I, Daniel Blake star Dave Johns updates film's story for stage premiere</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Actor Dave Johns, who played the lead role in Ken Loach's award-winning 2016 film I, Daniel Blake, is to update the story for its first stage version. Johns starred in the film as Dan, a Newcastle carpenter struggling to claim benefits after having a heart attack. The film earned director Loach the top prize at the Cannes Film Festival. Johns is now writing the script for its theatre premiere, which he said would reflect current issues like rising bills and the cost of living crisis. "Ken Loach is very much behind this and said there are still things that need to be said," he told BBC News.  "I do feel it's needed even more than ever now for the position we find ourselves in, with austerity coming back and the cost of living rising and zero hours contracts and all that, and this is Daniel Blake for 2023." The film showed the title character come up against an unfeeling benefits system and befriending a young family who had moved from London to find housing. Johns won best actor at the British Independent Film Awards and best male newcomer at the Empire Awards for his role. His theatre adaptation will open at Northern Stage in Newcastle next May before going on a UK tour. While he will write the script, he will not play the title role again, he said. Johns, who made his name as a comedian, said he would "present this story with fresh eyes and fresh vigour". "What I wanted to do with the stage adaptation was to explore it a bit deeper the film," he said. "I've kept to Dan's journey in the film, but I've explored more around Dan, and Katie and the kids' background. "But what we're trying to do as well is give a bit of hope. So there's a lot of humour in the play, as there was in the film. There's a lot of bewilderment at the Kafkaesque benefits system that people are forced into. But there's also hope for the future." Johns is returning to Northern Stage, 50 years after he had his first taste of the theatre at the venue on a school visit. After catching the theatre bug, he went on to work at venues backstage, before performing as well as writing scripts such as a stage adaptation of The Shawshank Redemption. When theatres and comedy clubs shut during the pandemic and his work dried up, he almost had to apply for benefits himself, he revealed. "For two years, I had nothing," he said. "It was suggested that I go to apply for income support. I thought, there's life imitating art. "Imagine if I turned up at the dole office. I thought, there's a turn-up for the books, I've been asked to go through the exact same thing that Daniel went through." He had just enough savings to see him through, however. He has now done research into what has changed with the benefits system since Daniel Blake was depicted coming up against inflexible and unsympathetic staff in benefit offices and call centres. "The only thing that's changed is the hold music. It's not Vivaldi any more," he said. "So at least the film got the music changed."</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/science-environment-63484729</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Plastic pollution: Waste from across world found on remote British island</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Thousands of pieces of plastic debris from all over the world have washed up on a remote South Atlantic island, according to conservationists. Litter found on the south-western coast of Ascension Island has been traced back to countries including China, Japan and South Africa, they say. The Zoological Society of London (ZSL) team spent five weeks assessing the extent of plastic pollution there. More than 900 species of marine life are at risk, they reported. Ascension Island has a wealth of species native to the island that have been affected by plastic pollution, such as the land crab, frigate bird and various species of sharks, turtles, fish and seabirds. The remote British-owned island has been subject to many schemes aiming to conserve its natural biodiversity, launched by the government as well as independent groups. "There is too much plastic being used badly," Fiona Llewellyn, a marine biologist at the ZSL Marine conservation team, told the BBC. "It was heart-breaking seeing the state of the plastic over there," she said, adding that big brands and governments needed to be made to account for the mess. Ms Llewellyn and her fellow researchers found 1,000 pieces of plastic waste in just one beach hut and more than 7,000 pieces in total during the expedition.  The small island, with a population of just 800 people, is concerned by the crisis. Only a small amount of plastic that washes up on its shores is coming from the island itself. Ms Llewellyn said: "It's easy to see that most of it is coming from elsewhere." Animals are ingesting the plastic and getting tangled in it, which can cause harm. There are growing concerns around microplastics and how they work their way up the food chain. The types of plastic commonly found on the island's coastline include plastic bottles, hard plastic fragments that have broken down, fishing gear and cigarette butts. Much of the waste ends up beached on rugged cliffs that are hard and dangerous to reach. "It was really challenging straggling down the rock faces to get to this shoreline and count all the plastic that was there," she said. The ZSL Marine conservation team worked with the Ascension Island government's conservation team, St Helena National Trust, St Helena's government, the University of Exeter and South Africa's Nelson Mandela University in a collaborative effort to tackle plastic pollution. The total project will last for three years and consists of monitoring the currents and movement of water, identifying the plastic bottles and assessing their expiry and production dates to distinguish when they might have entered the water and where from.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/technology-63635821</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>What is behind the big tech companies' job cuts?</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>The first sign of job cuts at Amazon came from LinkedIn posts from laid-off employees. Then, Amazon's devices boss, Dave Limp, announced: "It pains me... We will lose talented Amazonians from the devices &amp; services org". Across the tech industry, at firms like Twitter, Meta, Coinbase and Snap, workers have announced they are "seeking new opportunities". Worldwide, more than 120,000 jobs have been lost, according to the Layoffs.fyi website, which tracks tech job cuts. Different firms cut employees for different reasons but there are common themes. As our lives moved online during the pandemic, the tech giants' businesses boomed, and executives believed the good times - for them - would continue to roll. Meta, for example, took on more than 15,000 people in the first nine months of this year. Now executives announcing cuts have said they miscalculated. "I made the decision to significantly increase our investments," chief executive Mark Zuckerberg told Meta employees, as he laid off 13% of them. "Unfortunately, this did not play out the way I expected." Online adverts are the chief source of income for many tech firms, but for the advertising business, dark clouds have been gathering. Firms have faced growing opposition to intrusive advertising practices. For example, Apple made it harder to track people's online activity and sell that data to advertisers.  And as the economy ran into trouble, many firms slashed their online advertising budgets. In the financial technology sector, rising interest rates have also hit companies. "It's been a really a disappointing quarter of earnings for many of the big tech companies," said technology analyst Paolo Pescatore of PP Foresight. "No-one's immune." Even Apple has signalled caution, with chief executive Tim Cook saying the firm was "still hiring", but only on a "deliberate basis."  Amazon attributed its job cuts to an "unusual and uncertain macroeconomic environment" forcing it to prioritize on what mattered most to customers. "As part of our annual operating planning review process, we always look at each of our businesses and what we believe we should change," spokeswoman Kelly Nantel said.  "As we've gone through this, given the current macro-economic environment (as well as several years of rapid hiring), some teams are making adjustments, which in some cases means certain roles are no longer necessary. We don't take these decisions lightly, and we are working to support any employees who may be affected." Investors have also piled on the pressure to cut costs, accusing firms of being bloated and slow to respond to signs of slowdown. In an open letter to Alphabet, parent company of Google and YouTube, activist investor Sir Christopher Hohn urged the firm to slash jobs and pay. Alphabet had to be more disciplined about costs, he wrote, and cut losses from projects like its self-driving car company, Waymo. Elon Musk is certainly of the view that there is room to cut costs at his latest investment, Twitter, which has struggled to either turn a profit or attract new users. Added to that, many commentators argue Mr Musk paid over the odds for the firm, and the pressure is on to make his investment worthwhile. He laid off half the firm's employees; and for those who remain an "extreme" work ethic is promised. According to US media reports on Tuesday, Mr Musk told staff they needed to commit to a "hardcore" culture of "long hours at high intensity" or leave.  Industry watcher Scott Kessler also says there is less tolerance for big spending on high-tech gambles like virtual reality or driverless cars that may not pay off in the short term. Investors also see the high wages and cushy perks some enjoy in the industry as unsustainable. "Some companies have had to face harsh realities," he said. Mike Morini, from WorkForce Software, which provides digital management tools said it appeared to be a turning point. "The tech industry is exiting a period of growth at all costs," he said. But while the big tech firms may be buffeted by economic headwinds, they are not broken. Amazon's proposed 10,000 job cuts in corporate and technology roles - its biggest such reduction to date - represents only 3% of its office staff. And the lay-offs may also be the start of new businesses as talented staff, dumped by the big firms, join or create start-ups. As veteran Silicon Valley watcher Mike Malone recently told the BBC: "I won't write the Valley off yet. I still have a lot of hope."</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/technology-63662396</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>New FTX boss condemns crypto exchange's failure</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>New FTX chief executive John Ray has hit out at the way the failed crypto exchange was run. The firm filed for bankruptcy in the US last week and, in court filings, Mr Ray said he had never "seen such a complete failure of corporate controls".  Mr Ray, who replaced Sam Bankman-Fried, also criticised a "complete absence of trustworthy financial information". Meanwhile, Mr Bankman-Fried has told the Vox news website that he regretted filing for bankruptcy. He said that the decision had largely taken financial matters out of his control, and he also expressed his disdain for financial regulators. Mr Ray said what he had found since taking over was "unprecedented" in his 40-year career, which includes overseeing the bankruptcy of US energy giant Enron. In documents filed for the first day of bankruptcy proceedings at the Bankruptcy Court for the District of Delaware, Mr Ray also criticised what he said were "erratic and misleading" public statements by his predecessor.  Mr Ray said that FTX had concentrated control in the hands of a "very small group of inexperienced, unsophisticated and potentially compromised individuals", and that it did not maintain centralised control of its cash.   Instead, he said, there was an "absence of an accurate list of bank accounts and account signatories". So far he said it had been possible to locate "only a fraction of the digital assets" held by the firm.  Mr Ray's declaration to the court also says: "In the Bahamas, I understand that corporate funds of the FTX Group were used to purchase homes and other personal items for employees and advisors." The new chief executive did add that there was "a core team of dedicated employees" who had stayed focused on their jobs since the bankruptcy. He also noted some of the people most hurt by these events "are current and former employees and executives, whose personal investments and reputations have suffered". FTX is estimated to owe  money to more than a million people and organisations. It is unclear how much those with funds in the exchange will get back at the end of bankruptcy proceedings, though many experts warn it may be a small fraction of what they put into the firm. Mr Bankman-Fried has recently tweeted: "My goal - my one goal - is to do right by customers."</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/health-63626239</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Leprosy: Ancient disease able to regenerate organs</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Leprosy bacteria may hold the secret to safely repairing and regenerating the body, researchers at the University of Edinburgh say.  Animal experiments have uncovered the bacteria's remarkable ability to almost double the size of livers by stimulating healthy growth.  It is a sneakily selfish act that gives the bacteria more tissue to infect.  But working out how they do it could lead to new age-defying therapies, the scientists say. Leprosy causes disability when it infects the nerves, skin and eyes.  Throughout history, those infected have been shunned.  But the bacterium that causes it, Mycobacterium leprae, has other, unusual properties, including the ability to perform "biological alchemy", converting one type of bodily tissue into another, which are fascinating scientists. So the researchers turned to another animals that catches the disease - armadillos.  The experiments, which were performed in the US, showed the infection heads to the armoured animals' livers, where it performed a controlled hijacking of the organ to reprogram it for its own purpose.  "It was totally unexpected," Prof Anura Rambukkana, from the University of Edinburgh's centre for regenerative medicine, told me. The results, published in Cell Reports Medicine, showed the liver nearly doubled in size.  You might expect such growth to be defective or even cancerous - but detailed analysis showed it was both healthy and functional, complete with the usual array of blood vessels and bile ducts.  "It is kind of mind-blowing," Prof Rambukkana said. "How do they do that? There is no cell therapy that can do that."  It appears the leprosy bug is rewinding the developmental clock in the liver.  Fully grown liver cells are metabolic powerhouses with hundreds of jobs in the body.  But the bacteria are taking them back a stage - like becoming a teenager again - where they can rapidly increase in number before maturing back into adulthood. Interrogating the activity of different parts of the cells' DNA revealed a picture more akin to that of a much younger animal or even a fetus, when the liver is still forming.  But the precise details of how this is all happening remain elusive.  Nobel Prize-winning research has shown it is possible to forcibly turn the clock all the way back to the point at which cells regain the ability to become any other type of cell in the body - but this runs the risk of turning them cancerous.  "The [leprosy] bugs use alternative pathways," Prof Rambukkana told me.  "It's a much safer way and they take a longer time to do that, so this is a natural process."  The hope is the approach can be harnessed for repairing the livers of people waiting for a transplant - or even to reverse some of the damage caused by ageing elsewhere in the body.  "The dream is to use the same bacterial strategy, to use the ingenuity of bacteria to generate new medicines for regeneration and repair," Prof Rambukkana said. "If you can harness that, you should be able to turn that mechanism into a jab you have every three months or something." All these ideas remain untested, however. Dr Darius Widera, of the University of Reading, said: "Overall, the results could pave the way for new therapeutic approaches to the treatment of liver diseases such as cirrhosis. "However, as the research has been done using armadillos as model animals, it is unclear if and how these promising results can translate to the biology of the human liver.   "Moreover, as the bacteria used in this study are disease-causing, substantial refinement of the methods would be required prior to clinical translation." Follow James on Twitter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/health-63636201</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Boots and balls made for men an injury risk to women footballers</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sports scientists are highlighting the lack of football kit designed for women, saying the use of boots and balls created for male players could be putting them at higher risk of injury. Knee-ligament injuries in women are causing concern at an elite level. Despite some progress, the researchers say no large boot manufacturer has yet invested in a design to suit women. The profile and popularity of women's football in the UK has soared since England won Euro 2022. But most products are still predominantly designed for men's football and little attention has been paid to the requirements of the women's game, a paper says. Writing in the journal Sports Engineering, a group of sports and exercise researchers, doctors and staff involved in the elite women's game - including England captain Leah Williamson - point to the need for more kit and technology tailored to women's needs and body shape. For example, football boots fail to account for the fact women's feet, heels and arches are shaped differently. And wearing boots designed for men is causing blisters and stress fractures in elite female players. Women also move and run in a different way to men and yet the length of studs on boots are designed around male movement and traction.  This increases the risk of women getting their boot stuck in the surface and an injury being caused, author and sports rehabilitation lecturer Dr Kat Okholm Kryger, from St Mary's University, Twickenham, says. Another factor in women's injuries could be playing "on uneven surfaces where men's teams have played the day before", Dr Kryger says. Many major manufacturers are reportedly developing boots specific to women in time for the World Cup in 2023. Tottenham Hotspur club doctor Craig Rosenbloom, who is also a co-author of the paper, says anterior cruciate ligament (ACL) knee injuries are "at least twice as common in elite female footballers when compared to male footballers". This is putting "a huge burden" on the players and the clubs, he adds. Most elite male footballers return within seven to eight months of the injury - but for elite female footballers, it is usually at least 10.  "Elite female football squads are usually smaller than male squads, so missing players for longer has a big impact on player availability," Dr Rosenbloom says. The paper also highlights the need to design more comfortable and practical sports bras, shorts and hijabs. A number of clubs, including Manchester City, are switching to dark-coloured shorts for women because of worries over visible leakage when players are on their period. The FA says it wants players to feel fully supported on this issue and any feedback from women will be fed into future kit designs. The authors say technology, such as devices tracking health, performance and menstrual cycles, needs to be better designed for women too. And they call for more research into female players' concussion risk from heading the ball. "There's a higher level of microtrauma in the white matter in women's brains," Dr Kryger says. "That's not seen in men's football - so there could be a medical reason to change the ball." </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-us-canada-63629003</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>US midterms: Republicans narrowly win back the House</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Republicans have secured the 218 seats needed for a majority in the lower chamber of Congress a week after the midterm elections, the BBC's US partner CBS News projects. While the party's margin in the House of Representatives is razor-thin, it is enough to stall President Joe Biden's agenda for the next two years. Kevin McCarthy, the Republicans' leader in the House, celebrated the result. But Democrats will retain control of the upper chamber, the Senate. The new Congress will convene in January. The Republicans - who had hoped to win back control of both chambers - underperformed expectations in last week's midterms. But they won the seat they needed for their House majority on Wednesday when California's 27th district went to incumbent Mike Garcia. The Republican party is now projected to win between 218-223 seats in the 435-seat House, according to CBS. But with votes in several cliff-hanger races still being counted, their majority may not be clear for days or even weeks. Mr McCarthy, who was picked by rank-and-file Republicans on Tuesday to be their nominee to replace Democrat Nancy Pelosi as the next Speaker of the House, said the chamber had been "officially flipped". McCarthy wins Republican nomination for SpeakerMidterms results in maps and charts Donald Trump says he'll run for president in 2024  "Americans are ready for a new direction, and House Republicans are ready to deliver," the California congressman tweeted on Wednesday night. In order to be elected Speaker, the House Republican minority leader must win over majority support from the 435 members of the full House. But Mrs Pelosi signalled she would not relinquish the gavel quietly, vowing in a statement on Wednesday night that her party would exert "strong leverage over a scant Republican majority". The first woman to hold the post, Mrs Pelosi, 82, said nothing in her press release about whether she planned to stay on as minority leader, amid speculation in Washington about her future. Nancy Pelosi was able to accomplish a considerable amount with just a nine-seat margin, but she has proven to be singularly gifted at wrangling recalcitrant Democrats. There's no guarantee Republicans, who run the gamut from moderates in suburban battleground districts to Freedom Caucus conservative hard-liners, will be equally co-operative with their party's leadership. A majority is a majority, however, and assuming Republicans can pull together to elect a speaker when the full chamber votes in January, they will reap the rewards of their midterm victory. House rules give the party in charge control over which legislation gets votes and which languishes in limbo. Republicans will also run all the House committees, with their sweeping oversight and subpoena powers. While the fractious Republican caucus may not agree on much, they will be able to stop Joe Biden's agenda in its tracks and force showdowns over federal budget priorities.  For a party that has watched Democrats rack up a string of legislative successes over the past two years, that by itself will be a significant achievement. President Biden congratulated Mr McCarthy and offered to work with Republicans to deliver results for Americans. "As I said last week, the future is too promising to be trapped in political warfare," said the Democratic president. "The American people want us to get things done for them. They want us to focus on the issues that matter to them and on making their lives better." Mr McCarthy's party had hoped that the president's relatively low popularity, stubborn inflation, and the fact that congressional maps were redrawn by Republican-led state legislatures would add up to midterms victories for them.  The blame for last week's lacklustre showing has largely landed on two party leaders: former President Donald Trump and Senate minority leader Mitch McConnell. On Tuesday night, the ex-president formally announced a third bid for the White House in 2024 from a ballroom at his Mar-a-Lago estate in Florida. In Washington on Wednesday, Mr McConnell was renewed as Senate minority leader, fending off a challenge from fellow Republican Rick Scott of Florida. Non-congressional results are still trickling in more than a week after election day.  On Wednesday, congresswoman Karen Bass was projected to win the race to be the next mayor of Los Angeles, the second largest city in America, after defeating billionaire businessman Rick Caruso.  The Democrat will become the first woman to hold the office and the city's second ever black mayor. </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-asia-63647105</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>How missiles in Europe dominated a Bali summit</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>It was meant to be Indonesia's big reopening party after the pandemic, a chance to show the world it was ready for business and poised for recovery. But in the end, even the best efforts by the host of the G20 Bali summit to keep things on track were no match for a barrage of missiles fired half a world away.  On Tuesday night, world leaders sat down for dinner and a lavish concert featuring traditional Balinese dancers and eye-popping laser projections on towering cliffs. Several kilometres away, Russian Foreign Minister Sergei Lavrov was heading towards Ngurah Rai airport. At 21:35 local time (13:35 GMT), he took off in his plane. Organisers said it was a scheduled departure. But it also happened just as Russia fired scores of missiles into Ukraine, hitting key power infrastructure in Kyiv and other cities and killing at least one person. Then, hours later, came troubling reports of two missiles landing in Poland near the border with Ukraine - raising the possibility that Russia may have attacked a Nato member. As officials in Europe and the US scrambled to figure out the situation, US President Joe Biden was roused from his slumber in Bali. He and his team swung into action. As Mr Biden got on the phone with Polish leader Andrzej Duda and Nato secretary-general Jens Stoltenberg, US Secretary of State Antony Blinken called his Polish and Ukrainian counterparts.  The leaders of the G7 nations - all present in Bali - were then summoned for an emergency hour-long meeting to the Grand Hyatt, where Mr Biden was staying. Afterwards, Mr Biden told reporters he believed it was "unlikely" the missile that landed in Poland came from Russia, while condemning Moscow for "totally unconscionable" strikes on Ukraine. Mr Biden and many leaders then rushed to a scheduled G20 event at a Balinese mangrove forest. It was a surreal, whiplash moment, going from tense discussions on the Ukraine war straight into a cheery photo-op planting trees. Even as they smiled for the cameras while touring the forest, some could be seen breaking off in private discussions. Mr Biden and French President Emmanuel Macron, a key player in attempts to broker peace in Ukraine, stayed close to each other, with Mr Macron furrowing his brow in one particular intense chat. Wednesday was meant to be a day of diplomacy, with a series of carefully orchestrated bilateral meetings held among the various leaders. Those schedules were thrown out of the window with some meetings cancelled, including one between UK Prime Minister Rishi Sunak and Chinese President Xi Jinping.  Instead, Mr Sunak jumped on a call with Ukrainian President Volodymyr Zelensky and Canada's leader Justin Trudeau. In the afternoon, the much anticipated final communique of the G20 leaders was released.  One big question had been whether members would agree to any kind of unified condemnation of Russia's invasion of Ukraine. The statement said that "most members" condemned the invasion and acknowledged that others had different views - an obvious accommodation of Russia, as well as China and India which have refrained from condemning Moscow's actions. But right at the top it also quoted a strongly-worded UN declaration which "deplores in the strongest terms" Russia's actions and demands its "complete and unconditional withdrawal".  Some leaders have painted this as a win, given that the statement was not vetoed by Russia. In the end, while Indonesia's President Joko Widodo tried to keep the focus of the summit on other key issues such as climate change, the Ukraine war still ended up casting a long shadow.  But if nothing else, it did result in a notable degree of consensus and unity in a time of deep divisions. Sunak urges Russia to 'get out' of Ukraine at G20Biden promises 'no new Cold War' with ChinaTrouble in paradise as leaders gather for G20Why world leaders are meeting in Bali</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/science-environment-63643707</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nasa's Artemis Moon rocket lifts off Earth</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>The American space agency Nasa has launched its most powerful ever rocket from Cape Canaveral in Florida.  The 100m-tall Artemis vehicle climbed skyward in a stupendous mix of light and sound. Its objective was to hurl an astronaut capsule in the direction of the Moon. This spacecraft, known as Orion, is uncrewed for this particular flight, but if everything works as it should, people will climb aboard for future missions that go to the lunar surface. Wednesday's flight followed two previous launch attempts in August and September that were aborted during the countdown because of technical woes.     But such issues were overcome on this occasion, and the Space Launch System, as the rocket is often called, was given the "go" to begin its ascent from the Kennedy Space Center at 01:47 local time (06:47 GMT). "Today, we got to witness the world's most powerful rocket take the Earth by its edges and shake the wicked out of it," said Mike Sarafin, Nasa's Artemis mission manager. "We have a priority one mission in play right now."  His boss, the agency's administrator Bill Nelson, was also wowed. "That's the biggest flame I've ever seen. It's the most acoustical shockwave that I have ever experienced," he commented. "I have to say what we saw tonight was an A+. But we have still a long ways to go. This is just a test flight." Nasa's Orion spacecraft: A guideA photographic mission to show us the MoonArtemis: To the Moon and beyond How we get humans back to the Moon The rocket had a number of important manoeuvres to perform high above the planet to get the Orion capsule on the right path to the Moon. All were performed "outstandingly", said John Honeycutt, Nasa's SLS programme manager.  The ship will now rely on its European propulsion module to shepherd it safely on the rest of the mission. Josef Aschbacher is director general of the European Space Agency (Esa): "We have to make sure that Orion is powered safely to the Moon, circles the Moon, and then, as you know, we have to bring it back safely to Earth, making sure that the entry of the capsule into the atmosphere is on the right trajectory and at the right angle so that it can land in the Pacific Ocean. Yes, our job starts now, and it's a huge responsibility." December will see Nasa celebrate the 50th anniversary of Apollo 17, the very last time humans walked on the Moon. The space agency is calling its new programme Artemis (Apollo's twin sister in Greek mythology). It's planning a series of ever more complex missions over the next decade that should result in a more sustained presence at Earth's satellite, with the presence of surface habitats and the use of rovers, together with a mini space station in orbit around the Moon. Nasa hopes will become an inspiration to a new generation. It has promised that women and people of colour will feature in these endeavours, something that didn't happen 50 years ago. "I wanted to be an astronaut from the time that I was five years old." said astronaut Jessica Meir.  "For anybody that has a dream or some kind of aspiration, if they see somebody that they can identify with a little bit, it puts them into a totally different perspective where they can say, 'Well, wait a minute, that person was just like me, and they did it so I can do it too'." Analysis by Rebecca Morelle, BBC News Science Editor In 1972, Apollo astronaut Gene Cernan left the last set of footprints on the Moon. As he departed from the lunar surface, he said he believed it wouldn't be long before we returned. It's been 50 years. But today, the Moon is within reach for humanity once again. With a roar of its mighty engines, Nasa's new rocket has lifted us into a new era for human spaceflight. Nasa's astronauts watched on - if this mission is a success, next time they will be onboard, first flying around the Moon, and then landing on it. But we're not there yet. The Orion spacecraft may be on its way, but it has more than a million miles of travel ahead. It has to reach the Moon, orbit around it, and then return home. Nasa has to show this system is safe before any astronauts can be strapped in for the ride. Orion is being sent on a 26-day excursion that will take it into what's called a distant retrograde orbit at the Moon. At its closest, the capsule will be a mere 100km from the lunar surface; at its most distant, Orion will be up to 70,000km (45,000 miles). This will be the furthest from Earth any human-rated spacecraft has ever ventured. The capsule is due back on Earth on 11 December - about three and a half weeks from now.  That's when one of the key events in the whole mission occurs. Engineers are most concerned to learn that Orion's heatshield will cope with the extreme temperatures it will encounter on re-entry to our planet's atmosphere. The capsule will be coming in very fast - at 38,000km/h (24,000mph), or 32 times the speed of sound. A shield on its underside must cope with temperatures approaching 3,000C. The United Kingdom is playing its part in the Artemis adventure, and not just as a member state of the European Space Agency. On Wednesday, the Goonhilly Earth Station in Cornwall picked up the Orion ship's radio signal as it came off the top of the rocket. By analysing the shift in frequencies as the capsule moved through space, it enabled Nasa to more accurately calculate the trajectory for a later course correction. Goonhilly will be sending commands to six of the 10 small satellites that were also lofted by the SLS rocket. "We started our company here less than 12 years ago with an ambition to do deep space communication," explained Goonhilly CEO Ian Jones. "We thought we'd be picking up scraps here and there by now, not to be actually commanding spacecraft on Nasa's first return to the Moon, which is brilliant."</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-asia-63628537</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Qatar World Cup: Families seek answers over migrant worker deaths</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Qatar has transformed its infrastructure in the run up to the World Cup, which starts on Sunday. Millions of people from South Asia have been employed on building projects, including from Nepal - where families have told the BBC safety failures led to the death of their loved ones. In the early hours of 10 November, Qatar airlines flight QR 644 touched down at Nepal's Kathmandu airport. Among the cargo unloaded from the plane was a large white wooden box. "Human Remains of late Umesh Kumar Yadav, 32 years male, Nepali" was written on the outside. In Golbazar, 250km (155 miles) south-east of Kathmandu, his father ties up his buffalo outside his brick house. He lives in one of the poorest districts of one of the poorest nations in the world, where opportunity is scarce.  When his son Umesh was offered the chance to go and work in Qatar, one of the world's richest countries, Laxman Yadav sold some buffalo to pay $1,500 (£1,250) to an employment agent who promised to arrange a job. It's common for agents to visit impoverished areas not just in Nepal, but in Bangladesh and India, offering young men a lucrative job overseas, in exchange for large sums of money to secure them a visa. The workers are often passed from contract to contract, making it hard for the families to know where their relatives are working, and for whom. A desert World Cup blighted by a dust-storm of controversyHow Qatar's problems mute the excitementWhy are people protesting about the World Cup hosts? A two-hour drive away in the district of Dhanusha is Krishna Mandal's house. His father Sitesh left to work in Qatar four years ago.  Sometimes Sitesh sent his son selfies while at work. "He told me he worked on water tanks, but didn't tell us too much about what he was doing," says Krishna. Sitesh was due to return for a visit on 12 October. But just days before, Krishna got a phone call telling him his father had been killed in an accident.  A family friend said Sitesh was been working on sewage pipes, seven feet below ground in the capital Doha, when a heavy mound of earth fell onto him. His death certificate said he suffered "multiple blunt injuries due to solid object impact". Krishna says he hasn't received a single phone call from his father's employer, or an offer of compensation. The BBC contacted the company Sitesh worked for to get a comment, but they didn't respond. From Golbazar, Laxman didn't know too much about his son's life in Qatar - he does not own a smartphone and couldn't follow the daily updates Umesh used to post on TikTok.  In his videos, he could be seen dancing in front of Qatar's glitzy skyline or in his dorm-style accommodation with other migrant workers.  Umesh also shared clips of him at work on construction sites - smiling from on top of a ladder, or even - in true TikTok fashion - lifting heavy concrete blocks as a challenge. On 26 October, Umesh posted a video of himself dancing at night in front of some skyscrapers running adverts for the upcoming World Cup. It was the last post he'd ever make. Umesh's cousin, also called Laxman, and also working in Qatar, got a call on 27 October to say he had died. He went with others to the construction site to find out how. "They told us Umesh was taking the scaffold lift up, when it touched something and broke, and he fell down," he said. "They should have taken care of safety at the workplace," Laxman says. "They should have checked everything and only then allowed people to work." The BBC has been in touch with the construction company Umesh worked for - they strenuously deny a lapse in safety caused his death. "The accident occurred as a result of his negligence and recklessness," their statement said. "The worker who died was very careless on the site and was notified many times to abide by the safety conditions like the rest of his colleagues, but to no avail." Since World Cup construction began in Qatar, reports have emerged of the difficult conditions for and deaths of migrant workers.  Qatar's government says it is committed to "ensuring the health, safety and dignity of all workers employed on our projects". It told the BBC it has improved health and safety regulations. But new figures given to the BBC by the Business and Human Rights Resource Centre show that in the past year there have been close to 140 cases of violations of workers' rights, with around half relating to health and safety issues. They believe the true figure might be higher, partly due to fear of reprisal.  The BBC has seen more than a dozen death certificates of workers from across South Asia over a six-year period. Many cite the cause of death as "multiple blunt injuries". Families say they still want answers. While Umesh's coffin made its way from the airport to Golbazar, his father Laxman and dozens of other villagers prepared for his last rites - collecting piles of wood and hay to start the fire. In Nepal it is tradition for the eldest son to light the pyre. Laxman held Umesh's son, 13-month-old Sushant, easing a stick into the baby's tiny hand so he could start the fire. "He used to support us. We have loans to pay, and his young children to support," Umesh's mother Sumitra said, her face wet with tears. "He was my hero." Additional reporting by Rajneesh Bhandari, Rammohan Pateriya and Mrigakshi Shukla.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-us-canada-63593153</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Kari Lake: Interviewing the election denier who ran for Arizona governor</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> An election-denying former journalist wanted to be the next governor of Arizona. But does Kari Lake truly believe in what she's campaigned on? It was 54C (130F), but Kari Lake was cool as a cucumber.  Her immaculate hair-do and pristine make-up had somehow defied the sweaty ravages of the summer heat.  Lake spent 22 years as a TV anchor on Arizona's local Fox 10 news channel before jumping into politics with a run for Arizona governor this year, and her poised on-air persona has been one of her most powerful political weapons.  I met Lake this summer at a coffee morning hosted at a retirement community in Wickenburg, a couple of hours north of Phoenix. Lake had driven out there to campaign, soliciting votes and donations, from this critical group of constituents. She invited us to join them.  No Republican can hope to win state-wide office in Arizona without the support of older white voters, and in the pristine house on Tenderfoot Way, that's exactly what she found.  My crew and I arrived before Lake, and the room of a few dozen supporters was already buzzing with anticipation. They recognise Lake from her years reading the news; she's a celebrity in Arizona, and they were very excited to meet her. One elderly woman told me she only hoped Lake would be as glamorous in the flesh as she was on TV.  And when the TV anchor turned conservative firebrand finally arrived she didn't disappoint.  Lake is a real pro at working a room. Those years performing for the camera have served her well, and she walked in confidently, with a wide smile. "Oh my gosh, how are you?" she beamed. "Nice to see you, hi everyone. Gorgeous neighbourhood but even better looking people." If it was a bit canned, they didn't seem to mind. She'd been in the room less than a minute and had them eating out of her hand. I felt I was watching a master-class in retail politics.  Lake had a smile for everyone. Except me. She doesn't like journalists - which is odd since she was one for so long.  "I made a very difficult decision to walk away from my career," she explained. "I realised the work had become immoral. The field has gone full propaganda, and they are lying to the people. So I decided to throw my hat into the ring."  She paused for the applause and then a sly dig. "And, you know, we've got the media here. I'm about to do an interview with them, and I do hope they're fair." More applause.  For the next fifteen minutes Lake told this group of conservative voters what she planned to do if they elected her as governor. Her list included banning abortion, banning "woke" ideology in schools, clamping down on illegal immigration and litigating the 2020 election results.  "Without honest elections and a secure border, we no longer have a country and we're not going to let Arizona go," she said. That didn't just get applause, it got appreciative whistles too.  Early in the campaign, Lake won Donald Trump's endorsement by placing herself on the conservative wing of the Republican party, and more importantly, by claiming the 2020 election was stolen (though there is no evidence that it was). Her political ideology is right in line with that of his supporters.  By and large, this Republican women's coffee morning was happy with what they heard. Their only real concern was whether she was conservative enough.  The TV anchor once donated to one Barack Obama when he was running for president in 2008, and this crowd wanted to know if she was worthy of Donald Trump's endorsement. "Being new to this party, how did you manage to get Trump's endorsement?" one of the women asked.  "I've been a registered Republican almost 30 years. For four years I registered as a Democrat. I took a chance on a newcomer named Obama and was disappointed," she explained, adding: "President Trump knows a fighter when he sees one. He knows a winner when he sees one."  At that point she wrapped up her campaign pitch, and said goodbye with more hugs and effusive compliments - and one more shot across my bow. "What do you think: are the BBC going to be fair?" she asked the room.  We'd set up for our interview with her in another room of the house, and her press team insisted on filming us filming her. It was a little unnerving, but they said they wanted to make sure we didn't misrepresent her.   Interviewing Lake is an exercise in frustration. First, she loves fighting with the press, and is uniquely well placed to do it.  She told reporters that if she becomes governor, she'll be their "worst fricking nightmare". Second, she refuses to concede any doubt at all in her own election denial. During our interview, I put it to her that there was no evidence the 2020 election had been stolen. I pointed out that the Arizona Republican party's own recount had confirmed that Joe Biden had won the state. I reminded her that over 60 lawsuits claiming election fraud had been dismissed for lack of cause by judges around the US, including judges Trump himself had appointed.  How many 2020 election deniers won?The US has more female governors than ever before It made no difference. She is far more disciplined and on message than Trump could ever be.  "We could sit here all day," she said. "I can go over the evidence and the media still won't believe it because they're on a mission to discredit that."  She said evidence has never been presented, at least not in public. If the Lake team has it, we haven't seen it. She told me Arizona's attorney general has sat on a mountain of evidence. He says he's wrapped up his investigation and there's no evidence of fraud. The back-and-forth of baseless claims is frustrating. This should be black and white, fact-based, especially, one would think, to a news journalist.  I went into my interview with Lake hoping to discover if she really believes what she says about the election being rigged, or if she just uses the conspiracy as a useful way to win votes. Honestly, I left none the wiser. And maybe it doesn't really matter. Lake is still casting doubt on the validity of elections, this time her own. And whether she believes it or not, millions of her supporters do. That's where the damage to American democracy can be done.  Results in maps and chartsWhy results take so longMore female governors win officeHow many 2020 election deniers won?</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-us-canada-63627011</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Dallas air show crash: Victims in collision of WWII planes identified</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Decades of aviation experience bind together the six men killed in a tragic mid-air collision between two vintage aircraft in Texas this weekend. The Commemorative Air Force non-profit named the victims as Terry Barker, Leonard Root, Curtis Rowe, Craig Hutain, Dan Ragan and Kevin Michels. All six men were aboard the Boeing B-17 Flying Fortress and Bell P-63 Kingcobra that struck each other and exploded. Federal and local investigators are probing the cause of the incident. The B-17 and P-63 were part of flying demonstrations on Saturday as part of Wings Over Dallas, a Veteran's Day weekend event billed as "America's Premier World War II Airshow". No one on the ground in the Dallas Executive Airport area was injured or killed, but show organisers cancelled the final day of activities on Sunday as a show of respect for the affected families. A preliminary report on the accident is expected within four to six weeks, but a full investigation may take a year or more, the National Transportation Safety Board said. Here is what we know about the victims: Barker, 67, worked for American Airlines as an instructor pilot for 36 years and flew helicopters while serving in the US Army. In his spare time, he built and refurbished an aerobatic biplane called the Beechcraft AT-6, once describing the activity as being "like a postman taking a walk on his day off". A husband and father, Barker also served two terms on the city council in Keller, some 32 miles (50km) from Dallas. The city's mayor Armin Mizani wrote on Facebook that Barker was "a friend and someone whose guidance I often sought". "Terry Barker was beloved by many," Mayor Mizani said. "Even after retiring from serving on the city council and flying for American Airlines, his love for community was unmistakable."  Like Barker, Len Root, 66, spent nearly four decades with American Airlines, where he was a flight management system programme controller and flight director. Since last year, he was a commercial pilot and manager for Commemorative Air Force's Gulf Coast Wing, according to his LinkedIn profile. The Allied Pilots Association, a labour union representing American Airlines pilots, said it was saddened to hear of Barker and Root's deaths. "Our hearts go out to their families, friends, and colleagues past and present," the union said in a statement on Saturday night. Another crew member on the B-17 bomber was its mechanic - Major Curt Rowe, a resident of Hilliard, Ohio and a former Air National Guardsman. Rowe, 64, served in the Ohio wing of the Civil Air Patrol, an official civilian auxiliary of the US Air Force, for more than three decades. Colonel Peter Bowden, commander of the Ohio Wing, wrote on Facebook that Rowe had "touched the lives of thousands of his fellow Civil Air Patrol members". "I reach to find solace in that when great aviators like Curt perish, they do so doing what they loved," Bowden said. Rowe's cousin Tom told the local WSYX TV station the family was in shock over his passing. "You always counted on a good laugh when you were around him," he said. Hutain, 63, was flying the single-seat P-63 warbird, which he has described as "an honour and a privilege to fly". He started flying with his World War II veteran father when he was just 10 years old. By age 17, he was flying solo. With a bachelor's degree in aeronautical engineering under his belt, he flew commercial flights for both Rocky Mountain Airways and United Airlines. The Montgomery, Texas native has flown for the Tora Tora Tora airshow - a re-enactment of the 1941 attack at Pearl Harbour - since 2009, as well as with the Commemorative Air Force in Georgia. In interviews earlier this year, Hutain said that aviation was his "lifelong obsession" and airshows were a chance for him to "try to create history lessons" for spectators. He leaves behind a wife of 20 years, two adult children and four grandchildren. Ragan, 88, was a colonel in the US Navy. He worked as a combat radio operator during the Korean War and had patrol duties over Japan. In an interview with the Longview News-Journal last year, Ragan said he offered rides to the public on the same plane he once flew successful missions on. "When I first got back on the plane, I was a kid in the candy store," he told the newspaper. Flying the plane again was "beautiful", he said, because it reminded him of his late brother, who was also a B-17 pilot. The Tulsa, Oklahoma native reportedly served on the B-17 plane that crashed on Saturday when it was part of a naval squad back in 1955, according to the Guardian. Friends knew Michels, 42, as "K5". He worked on many roles with the Commemorative Air Force flight crew, including historian, media representative and tour supervisor. For years, he worked to educate people about the historic B-17 aircraft, a four-engine bomber that was integral to US air operations during WWII.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-asia-india-63445015</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>EK Janaki Ammal: The 'nomad' flower scientist India forgot</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>In March, the magnolias begin blooming at Wisley. For the next few weeks, rows of pink flowers dot the small town in Surrey in the UK, beckoning passers-by to stop and smell them. Few know, however, that many of these blooms have Indian roots. They were planted by EK Janaki Ammal, a scientist who was born in the southern Indian state of Kerala in the 19th Century.  In a career spanning almost 60 years, Janaki studied a wide range of flowering plants and reworked the scientific classification of several families of plants. "Janaki was not just a cytogeneticist - she was a field biologist, a plant geographer, a palaeobotanist, an experimental breeder and an ethno-botanist and not in the least, an explorer," says Dr Savithri Preetha Nair, a historian who has researched the scientist's life for years.  It's difficult, Dr Nair says, to name even one Indian male geneticist from the time who adopted such cross-disciplinary methodology in their research.  "She talked about biodiversity as early as the 1930s." Why India forgot this freedom hero from the south Janaki lived an inspiring life, but for decades, her work went largely unappreciated and her contribution to science was barely acknowledged. But this year - which also marks Janaki's 125th birth anniversary - Dr Nair hopes to change that with an in-depth biography. The book, titled Chromosome Woman, Nomad Scientist: E.K. Janaki Ammal, A Life 1897-1984, was released earlier in November and is the product of 16 years of research spread across three continents. It also marks, Dr Nair says, the beginning of "a grand project" of recovering stories about Indian women in science. "Until now, published sources on women scientists have focused on Europe and North America," she says, adding that women from Asia and other regions "hardly figure anywhere".  While Janaki's professional achievements were numerous, her family members say the way she lived her life was also inspiring. "She thrived on human possibility," says Geeta Doctor, a writer and Janaki's grand-niece. "She was passionate about everything, completely liberated and always fixated on her work." Janaki was born in Tellichery (now Thalassery) in Kerala in 1897. Her father, EK Krishnan, was a high court sub-judge in the Madras Presidency, an administrative subdivision in British India. She grew up in privilege, in a large family that lived in a house called Edam, which Ms Doctor says was "the centre of Janaki's life".  The two-storey house had a grand piano, a sprawling library and spacious halls, its large windows overlooking a carefully-tended garden.  Janaki belonged to Kerala's Thiyya community, which is regarded as socially backward under the Hindu caste system. But at Edam house, Janaki's life was far removed from any prejudices, Ms Doctor says.  That didn't mean she did not face caste discrimination in her life, she adds - but she never allowed it to stop her.  "If somebody displeased her, she would just move on." After she finished school, Janaki moved to Madras (now Chennai) for higher education.  In 1924, she was teaching at a women's college when she received a prestigious scholarship from the University of Michigan in the US. Eight years later, she became the first Indian woman to be awarded a doctorate in botanical science. She returned to India shortly after, and taught botany in her home state before joining the Sugarcane Breeding Station at Coimbatore. It was here that Janaki worked on cross-breeding sugarcane and with other plants to create a high-yielding variety of the crop that could flourish in India. She was the first person to successfully cross sugarcane and maize, which helped in understanding the origin and evolution of sugarcane, Dr Nair says.  A particular hybrid she created, the historian adds, went on to produce many commercial crosses for the institute but she didn't receive credit for it. In 1940 - just after World War Two had started -  Janaki moved to London and joined the John Innes Horticultural Institution to continue her research. The next few years were the most formative ones of her career. Five years later, she became the first woman scientist to be employed at the Royal Horticultural Society Garden at Wisley.  It was also a time of hardships and hard work - Britain was facing the brunt of the war and food supplies were heavily rationed. "But Janaki was unfazed," Ms Doctor says. "When the bombs fell, she would just dive under the table or sleep under the bed - all in a day's work." This attitude extended to her personal life, she says. "[The children of her family] were her equals and she expected us to keep up with her strict ways." But there was a sweeter side to her as well.  Ms Doctor recalls that her grand-aunt gave them amazing books and took them on delightful picnics.  And she was always brimming with stories - about Kapok, the small black-striped palm squirrel that she had smuggled in her sari to keep her company in London; and her doll Timothy, who fascinated everyone at Edam. Ms Doctor does not put dates to these memories - the past is simply the past - but she vividly remembers Janaki's strident personality and commanding presence; her vibrant yellow saris; and her "energetic yet subtle" ways.   "She enjoyed life in its minutiae and also the grand scheme of things, but with a rigorous scientific mind." Dr Nair says that this was also evident in her work, which was not about one seminal revelation, but a series of small-scale discoveries which contributed "to the grand history of human evolution".  "The questions she asked were fundamental ones about plants and man." In 1951, India's prime minister Jawaharlal Nehru asked Janaki to return to the country and help restructure the Botanical Survey of India (BSI). Janaki, who was greatly inspired by the teachings of Mahatma Gandhi, went immediately.  "But her male colleagues refused to take commands from a woman and her attempts to re-organise BSI were turned down," Dr Nair says, adding that Janaki was never entirely accepted at the institute.  This caused her great pain and she could never entirely recover from it. So she took refuge in exploring the country in search of new plants.  In 1948, Janaki became the first woman to go on a plant-hunting expedition to Nepal which, according to her, was the most unique part of Asia botanically, says Dr Nair. When she was 80, the Indian government awarded her a Padma Shri, one of the country's highest civilian honours. She died seven years later, in 1984.  Ms Doctor says that even though Janaki did not receive the recognition she deserved, she never lost her passion for studying life.   "She would always say 'my work will survive' - and it did."  Dr Nair agrees. "Janaki's life continues to be a blazing testament to intellectual integrity." India officer’s speech with child in arms sparks debateFilm on India women in Islamic State sparks rowCan India really adopt a climate-friendly lifestyle?India shocked as men sentenced to death for rape freedIndia's 'Florence Nightingale' saves life mid-air</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/business-63598525</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Primark website crashes as click-and-collect launched</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Primark's website crashed on Monday, shortly after the retailer finally launched its click-and-collect service. It is starting a trial in 25 stores in north-west England, Yorkshire and north Wales for children's products only. The budget chain, which lost more than £1bn in sales during the pandemic when its stores had to close, has succumbed to the online shopping revolution but it is not planning deliveries. Primark said it was aware some people had issues accessing its site. "We're working hard to address this to ensure that everyone can access and browse the site easily," the company said in a statement.  By mid-afternoon the website appeared to be back up and running for some customers. Paul Marchant, the retailer's chief executive, said the launch of Primark's click-and-collect service was a "milestone for us and a really important moment". "We're massive fans of bricks and mortar. We believe in stores and we believe in the High Street. We think click-and-collect is the right proposition," he told the BBC in a rare broadcast interview.   The retailer is hoping that giving customers the chance to shop online and then pick up in store will drive more customers to its shops. During the pandemic lockdowns Primark's 190 UK stores were forced to close its doors, and it had no online operation to fall back on.  But Mr Marchant says the High Street now seems buoyant again.  "We feel excited about Christmas. I think we're really well set. Our stores are feeling busy. "It's the first time for three years that customers have been able to come into the store, mask free, restriction free and really enjoy the experience of being in a Primark store." Last week Primark's parent group, ABF, said it would freeze prices for Primark's clothes beyond what was already planned for this winter, despite rising costs.  As the cost-of-living crisis bites, people have been looking to save money where they can. Supermarkets have seen shoppers swapping out of brands to cheaper, own-label products, while many people have been stocking up on warm clothes to save money on heating. Primark itself says its snuddie, or oversized hoodie, has been one of its bestsellers so far this winter.  The retailer has defied the wider gloom on the High Street and Mr Marchant says it has picked up new customers because of the cost-of-living crisis. "I think customers are looking for better value all the time. I think at Primark, we offer them outstanding value. And I think we are attracting new customers as a consequence of that." Primark has also been upping its game at its biggest "destination" stores, like its vast Manchester city centre one, with cafes, a barber shop, a vintage concession store and pop-up space to personalise Primark products.  "We are, I think, the new department store, because I think we offer something for everybody but done in a new and exciting way," Mr Marchant says. And this now includes dipping its toe into the world of e-commerce.  Retail analyst Catherine Shuttleworth, CEO and founder of Savvy Marketing, says Primark is simply bowing to the inevitable.  "They've had massive highly successful physical store growth, not just in the UK and Ireland, but also across the world. However, that dependency on a store-only format has its limitations as Primark found out to their cost in the retail lockdowns during the pandemic," she says.  An online presence not only allows them to reach shoppers who can't easily access a store, or don't have time to queue up so want flexibility in when and where they visit, she says click-and-collect may also become important for the hordes of Primark fans to get their hands on products quickly before they sell out.  Given the costs of fulfilling and delivering online orders, and dealing with high levels of returns, it can be hard for retailers to make the economics of e-commerce stack up.  "Online is a huge commercial undertaking and the logistics for a business with the size and scale of Primark are enormous. Click-and-collect is the most sensible way to run this operation, not least because it allows returns to be placed back into the store stock to help keep costs down," Ms Shuttleworth says.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/business-63629041</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Beauty Pie founder Marcia Kilgore: 'Connect your dots'</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Marcia Kilgore, serial cosmetics and fashion entrepreneur, who has founded companies like Bliss Spas, FitFlop and Beauty Pie, shares her advice for the CEO Secrets series.Produced, filmed and edited by Dougal Shaw</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/uk-england-essex-63628208</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>In Pictures: Inside the floating polar research laboratory</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>The vessel the public once hoped to name Boaty McBoatface is poised to return to Antarctica after making its first voyage to the continent a year ago. What is it like for those who call the RRS Sir David Attenborough "home"? The £200m RRS Sir David Attenborough is described as a floating polar research laboratory. In the coming years, the Cambridge-based British Antarctic Survey (BAS) believe the Polar Ice Class 5 ship will enable world-leading research in Antarctica. Currently harboured at its UK home port of Harwich, Essex, it will depart on Sunday for Antarctica. The first leg of the journey will be a three-week voyage to the Falkland Islands where further supplies will be collected before it heads south to the various BAS research stations. The research being carried out will include testing trace metal systems, and deploying and recovering instruments in deep and polar waters. The scientists aboard work 12-hour shifts. "The voyage we have coming up is about testing the ship's capabilities," said Dr Elaine Fitzcharles, senior lab manager for BAS. The scientists, she said, would be collecting various samples including invertebrates, sediment and water. "It is about testing the science capabilities of the ship to make sure it can deliver what the science community will need. "It is a fantastic vessel and the space we have is phenomenal for a research ship - we need to make sure the science we do on board does it justice." Because of the size of the vessel the scientists did not feel as "penned in" as they might on smaller craft, Dr Fitzcharles said. "There is a great sense of camaraderie between the crew and the scientists on board," she said. Capt Will Whatley is in charge of the RRS Sir David Attenborough. "The ship is a very comfortable place to live and work and we recognise that this is people's home as well as their place of work, and people need their own space to relax in. We try to make time for that," he said. "It can be challenging to make sure all the different demands are met because time is tight and we have to make best use of the massive capability we have here." He said all of the crew on board were interested in science, which helped ensure a healthy relationship between the crew and the researchers. "One of the great thing about the Antarctic is that we all want to be there." With crew and scientists away for weeks or months at a time, food becomes key to maintaining morale on board, says chef Steve Carpenter. Having started his day at 04:30 GMT, Mr Carpenter said: "It is the food that keeps morale high.  "We might not get told if the food was good but we definitely get told if it is not up to scratch. "We are such a close-knit crew that we are a proper family unit really and a home-from-home.  "We have movie nights and quiz nights and a folk night to keep us all entertained." Meticulous planning was needed, he said, to keep dozens of people eating well throughout their journey.  "When we sail from the UK, we are taking all the stores that we need for the next six months so there's got to be some kind of rationing, some kind of thought going into what the menus are and to reduce the amount of food wastage - we are very tight on the wastage and things get upcycled and recycled. "Keeping the fresh fruit and vegetables going is a bit of a mission and we've got special devices that take the gases out of the fridges that mean the fruit and veg will last a bit longer. "We can go up to about 90 on board  and we've got to cater for all their dietary requirements.  "It is not a restaurant as such because we have to provide a nutritionally balanced meal for them." The vessel is 129m-long (423ft), has a 24m (79ft) beam and weighs 15,000 tonnesIt is home to 30 crew and up to 60 scientists and support staffThere is 1,020km (634 miles) of electric cabling on boardRRS Sir David Attenborough is what is called a Polar Ice Class 5 (PC5) ship, meaning it should be able to move through medium, first-year ice - about a metre (3ft) in thickness - at a speed of three knots (5.6km/h) During the forthcoming expedition the RRS Sir David Attenborough will be using artificial intelligence to assist navigation. The aim of the AI system, said Prof Maria Fox, was to keep the ship as economical as possible. "Shipping is by far the most carbon intensive part of polar research and we are all concerned about shipping in these fragile environments," she said. "We've been trying to automate some of the route planning in order to help the captain explore a range of alternative routes some of which are deliberately eco-routes. "The routes are planned against the environmental conditions." Dr Sophie Fielding, a fisheries acoustician, will be leading the science trials in the forthcoming voyage. "I think my mum thinks being on board is quite hard but in reality it is actually quite easy," she said. "We are looked after fantastically well." One of the key areas of research will involve testing the really small levels of the micronutrient iron in the waters around the peninsula.  "We know that iron fertilizes the Southern Ocean, fuelling primary productivity which is photosynthesising and drawing in carbon dioxide and converting it to carbon - and if that carbon is then pushed down into the ocean it is part of our mechanism for removing carbon dioxide from the atmosphere. "That is really important work." Photography: Laurence Cawley, unless otherwise stated Find BBC News: East of England on Facebook, Instagram and Twitter. If you have a story suggestion email eastofenglandnews@bbc.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-africa-63542247</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Africa's week in pictures: 4-10 November 2022</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A selection of the week's best photos from across the continent and beyond: Images subject to copyright.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/uk-england-humber-63549572</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Hull: Photographer recaptures city pub scenes 40 years on</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A photographer who frequented a pub nearly four decades ago and caught life there on camera has returned to recapture similar scenes 40 years on. Russell Boyce took a series of photos in the Star &amp; Garter pub on Hessle Road while he studied in Hull and says he became "part of the furniture".  He revisited his former haunt in 2022 to capture his former photos in the same position they were taken in 1983.  "It's like the figures were coming back to have another pint," he says.  The pub's name is now Rayners, as it was known informally when the original images were taken. Mr Boyce first went in the pub, which was a popular meeting place for Hull's fishing community, when he was a student photographer learning the trade.  The lensman, who used to live just off Hessle Road, says: "I came here every single day, just shooting pictures, until eventually everyone just ignored me, I became a part of the furniture. "That's when you can get in closer. You can walk around and get the pictures and they just ignore you." Mr Boyce said the pub was a spot where deep-sea trawlermen, who worked for weeks at sea then came home for a couple of days, used to gather. By 1983, many of the drinkers were "old, retired or unemployed fishermen, their wives or their widows", he says.  The photographer, who went on to work for the Reuters agency for 20 years after honing his skills in Hull, says: "I thought it'd be nice to try to connect the pictures from the 1980s to now. "What hasn't changed is the warmth of the people accepting what I'm doing and it's wonderful." Rachel Naylor, the pub's current landlady, says: "There's not a day where I don't learn anything about the pub. "Another story, another piece of history. The things people have got to tell you are fantastic. " Follow BBC East Yorkshire and Lincolnshire on Facebook, Twitter, and Instagram. Send your story ideas to yorkslincs.news@bbc.co.uk.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-europe-63564404</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Ancient Rome: Stunningly preserved bronze statues found in Italy</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Italian archaeologists have unearthed 24 beautifully preserved bronze statues in Tuscany believed to date back to ancient Roman times.  The statues were discovered under the muddy ruins of an ancient bathhouse in San Casciano dei Bagni, a hilltop town in the Siena province, about 160km (100 miles) north of the capital Rome. Depicting Hygieia, Apollo and other Greco-Roman gods, the figures are said to be around 2,300 years old.  One expert said the find could "rewrite history". Most of the statues - which were found submerged beneath the baths alongside around 6,000 bronze, silver and gold coins - date to between the 2nd Century BC and the 1st Century AD. The era marked a period of "great transformation in ancient Tuscany" as the area transitioned from Etruscan to Roman rule, the Italian culture ministry said. Jacopo Tabolli, an assistant professor from the University for Foreigners in Siena who leads the dig, suggested that the statues had been immersed in thermal waters in a sort of ritual. "You give to the water because you hope that the water gives something back to you," he observed. The statues, which were preserved by the water, will be taken to a restoration laboratory in nearby Grosseto, before eventually being put on display in a new museum in San Casciano.  Massimo Osanna, director general of Italy's state museums, said the discovery was the most important since the Riace Bronzes and "certainly one of the most significant bronze finds ever made in the history of the ancient Mediterranean". The Riace Bronzes - discovered in 1972 - depict a pair of ancient warriors. They are believed to date back to around 460-450BC. All images subject to copyright.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/in-pictures-63472199</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Mangrove forests: Crocodile close-up in Cuba wins photo awards</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Tanya Houppermans has been named overall winner of this year's Mangrove Photography Awards, for her close-up portrait of an American crocodile surrounded by mangroves at Gardens of the Queen in Cuba. Run by the Mangrove Action Project, the competition - now in its eighth year - aims to show the relationships between wildlife, coastal communities and mangrove forests, as well as the fragility of these unique ecosystems, both above and below the waterline. Gardens of the Queen is an archipelago off the coast of Cuba and has been strictly protected since 1996. It is one of the most untouched marine ecosystems in the world. "The healthy population of American crocodiles is down to the pristine condition of the mangroves, and I wanted to capture close-ups of this gentle giant in its natural habitat," said Ms Houppermans. "I hope this image can illustrate that protecting areas like this is so critical." Mangroves are an important protection against climate change, with one acre (4,000sq m) of mangrove forest absorbing nearly the same amount of carbon dioxide as an acre of Amazon rainforest. The forests also protect coastlines from eroding, as intense storms grow more frequent. "The Mangrove Photography Awards has become a platform to intrigue people about the magnificent ecological role mangroves play in all of our lives", said judge Dhritiman Mukherjee. Fellow judge Octavio Aburto added: "The images from this year captivated our imagination.... giving us hope and illuminating a positive future for mangrove ecosystems." Here is a selection of winning images from seven competition categories, with descriptions by the photographers. 'Honey Hunters' collect wild honey deep in the mangroves of the Sundarbans, the largest mangrove forest in the world. Both recent human development in the area and the climate crisis - in particular the rise in sea-levels - are threatening the ecology of the Sundarbans and with it, the way of life of the Moulis people. A local fisherman casts his net in the white-flowered mangroves (Lumnitzera racemosa) of Bau Ca Cai, Vietnam, an area allocated to local people to protect. I took this photo in late autumn when the trees had lost their leaves, highlighting the connection between vulnerable communities and nature. The sun rises along the peaceful beaches of East Sumba in Indonesia. I wanted to capture the beauty and fragility of this unique wonder. Reflections at dawn on the Merritt Island National Wildlife Refuge, Florida. A greater flamingo (Phoenicopterus roseus) takes off on a migration journey across Asia, and will most likely return to the same coastal wetlands in the winter months. The preserved mangroves of Guaraqueçaba are an important place for visitors, including this pair of Roseate Spoonbills (Platalea ajaja). A blue crab (Callinectes sapidus) fishing in a unique transition between fresh and salt water in the Mexican cenotes. During an exploration dive through the dark flooded caves, I came across this proudly standing crab silhouetted against the mangrove roots above. I wanted to show a different side of these juvenile lemon sharks: a social side, a more vulnerable side. A water monitor lizard (Varanus salvator) struggles along the plastic filled forest floor foraging for food. More and more plastic fills our mangrove forests and it's affecting our wildlife that call it "home". A lack of proper waste management systems in nearby villages means parts of the Godavari mangrove forest in India are becoming a dumping area for huge amounts of plastic. College students from North Sulawesi, Indonesia, undertake a zonation exercise, discovering the close relationships between mangroves, coral reefs and seagrasses. An area of the Godavari mangroves is now making way for rapidly expanding developments, including aquaculture. The mangroves [in Bonaire, an island municipality of the Netherlands] support a rich biodiversity and provide a valuable nursery habitat for fish and crustaceans. Juvenile Caribbean spiny lobster are finding shelter within the submerged roots before their journey to nearby reefs. All pictures are subject to copyright.</t>
         </is>
       </c>
     </row>
